--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B90692-1E14-4F6F-BDDD-2841D3AD6FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F097A98-514E-4B95-855C-DFCFF0FB3B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
   <si>
     <t>Address</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Письменный</t>
   </si>
   <si>
-    <t>Прямоугольный</t>
-  </si>
-  <si>
     <t>Нет</t>
   </si>
   <si>
@@ -213,25 +210,7 @@
     <t>Тумба</t>
   </si>
   <si>
-    <t>Жёлтый</t>
-  </si>
-  <si>
-    <t>Другой</t>
-  </si>
-  <si>
-    <t>Металл</t>
-  </si>
-  <si>
     <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Рыжий</t>
-  </si>
-  <si>
-    <t>Офисный стол</t>
-  </si>
-  <si>
-    <t>Серый</t>
   </si>
   <si>
     <t>Стол компьютерный угловой</t>
@@ -264,29 +243,6 @@
     <t>Угловой</t>
   </si>
   <si>
-    <t>Стол эргономичный на металлических ногах 
-Артикул 2051-54
-Описание: офисные столы бу классического цвета. Стол с небольшим вырезом создает большую комфортную рабочую зону, в отличии от прямых столов. 
-Размер 149х80 - 4000,
-119х80-3500
-Цвет: ольха
-Количество: 50 шт.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/SJ1YV1vTUGwCKg | https://disk.yandex.ru/i/fR82mZNAKU-Uqw | https://disk.yandex.ru/i/bq9EW6VrgHtBmQ | https://disk.yandex.ru/i/19tD2UP4ixAULA | https://disk.yandex.ru/i/hWrPFqfuW3bVLQ </t>
-  </si>
-  <si>
     <t xml:space="preserve">Офисный стол </t>
   </si>
   <si>
@@ -337,36 +293,6 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/YFHBkVHR8OaOIg | https://disk.yandex.ru/i/U1DTSb-aXN5TJg | https://disk.yandex.ru/i/Kvqjnr5gsAj_aA | https://disk.yandex.ru/i/TMATmVG2jtixKA</t>
-  </si>
-  <si>
-    <t>Стол офисный с тумбой</t>
-  </si>
-  <si>
-    <t>Офисный стол с тумбой
-Артикул: (2207)(2209)левые. (2208)(2210)- правые. 
-Описание
-Размеры ДхШхВ: Стол - 140х120х75й
-Тумба - 60х43х75
-Цвет ольха
-Цена: 7000 за 1 штуку.
-Количество: 73 шт.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/dJx8mlt2Pp5dOA | https://disk.yandex.ru/i/ar6bk7M5X1eEQw | https://disk.yandex.ru/i/nBO3929Hw-qHtA | https://disk.yandex.ru/i/l4zUP9Ub1YOkeA | https://disk.yandex.ru/i/dNHRb8u5vuYM5g</t>
   </si>
   <si>
     <t xml:space="preserve">Стол угловой с тумбой </t>
@@ -405,72 +331,6 @@
   </si>
   <si>
     <t xml:space="preserve">ДСП </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный с перегородкой </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный с перегородкой 
-Артикул 2286
-Элегантный офисный стол с белоснежной столешницей и стильными серыми ногами – идеальное решение для современного рабочего пространства. Чистый и минималистичный дизайн создаёт атмосферу порядка и концентрации, а нейтральные цвета легко впишутся в любой интерьер. Просторная столешница обеспечивает удобное место для работы, будь то ноутбук, документы или аксессуары
-Размер ДхШхВ: 140х80х75
-Перегородка 140х38
-Цена: 4000р за 1 шт.
-Перегородка: 3500р за 1 шт.
-Количество: 27 шт.
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/AVlNRzwvpBu8Yw | https://disk.yandex.ru/i/WUsEAVNOwV6n2A | https://disk.yandex.ru/i/9Juh2hWDd-kfjQ | https://disk.yandex.ru/i/oHvv__HeIW1TRw | https://disk.yandex.ru/i/vM9XT2YaQFij7g | https://disk.yandex.ru/i/Rfy_RtA6P6kbsg | https://disk.yandex.ru/i/e2EirmVh-glfZw | https://disk.yandex.ru/i/VvvGKg_SHCFuWg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный прямой </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный прямой 
-Артикул (2895)
-Представляем стильный офисный стол французского производства, который станет настоящим акцентом вашего рабочего пространства. Элегантная рыжая столешница, выполненная из высококачественных материалов, придаёт интерьеру тепло и изысканность. Прочные металлические ноги добавляют контраста и современного шарма, обеспечивая стабильность и долговечность. Этот стол идеально сочетает в себе презентабильность и функциональность, подойдёт как для домашнего кабинета, так и для стильного офиса. Эргономичный дизайн и продуманные детали делают работу за ним максимально комфортной
-Размер 120х80х75
-Цвет: рыжий
-Цена: 4000 за 1 шт.
-Количество: 5 шт.
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-                 ➕ При поиске нас в навигаторе наберите – 
-                 Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
-                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-                 -------------------------------------------------------------------
-                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-                 Можем укомплектовать 100-200 рабочих мест.
-                 </t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/9AnFfKNR3cXQiA | https://disk.yandex.ru/i/oO50EO6Fthn1Iw | https://disk.yandex.ru/i/6AbOt9nEbSSzew | https://disk.yandex.ru/i/y_qlVUsAAuJppg | https://disk.yandex.ru/i/jizF6SSxYpyhjw | https://disk.yandex.ru/i/9ZTHLxi5DUoavw</t>
   </si>
 </sst>
 </file>
@@ -773,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS10"/>
+  <dimension ref="A1:AS6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,16 +917,16 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>4499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>49</v>
@@ -1096,10 +956,10 @@
         <v>57</v>
       </c>
       <c r="AJ3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AK3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL3">
         <v>120</v>
@@ -1111,27 +971,27 @@
         <v>160</v>
       </c>
       <c r="AP3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS3" t="s">
         <v>60</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
       <c r="F4">
-        <v>3499</v>
+        <v>2999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>49</v>
@@ -1152,7 +1012,7 @@
         <v>54</v>
       </c>
       <c r="AE4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="AH4" t="s">
         <v>56</v>
@@ -1161,10 +1021,10 @@
         <v>57</v>
       </c>
       <c r="AJ4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AK4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1173,30 +1033,30 @@
         <v>75</v>
       </c>
       <c r="AN4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS4" t="s">
         <v>60</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>2999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>49</v>
@@ -1226,10 +1086,10 @@
         <v>57</v>
       </c>
       <c r="AJ5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AK5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1238,30 +1098,30 @@
         <v>75</v>
       </c>
       <c r="AN5">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AP5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS5" t="s">
         <v>60</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F6">
-        <v>2999</v>
+        <v>15000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>49</v>
@@ -1273,7 +1133,7 @@
         <v>51</v>
       </c>
       <c r="AB6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="AC6" t="s">
         <v>53</v>
@@ -1284,6 +1144,9 @@
       <c r="AE6" t="s">
         <v>55</v>
       </c>
+      <c r="AF6" t="s">
+        <v>76</v>
+      </c>
       <c r="AH6" t="s">
         <v>56</v>
       </c>
@@ -1291,13 +1154,13 @@
         <v>57</v>
       </c>
       <c r="AJ6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AK6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM6">
         <v>75</v>
@@ -1306,308 +1169,28 @@
         <v>140</v>
       </c>
       <c r="AP6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS6" t="s">
         <v>60</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7">
-        <v>6999</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL7">
-        <v>120</v>
-      </c>
-      <c r="AM7">
-        <v>75</v>
-      </c>
-      <c r="AN7">
-        <v>140</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8">
-        <v>15000</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL8">
-        <v>90</v>
-      </c>
-      <c r="AM8">
-        <v>75</v>
-      </c>
-      <c r="AN8">
-        <v>140</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9">
-        <v>4000</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL9">
-        <v>80</v>
-      </c>
-      <c r="AM9">
-        <v>75</v>
-      </c>
-      <c r="AN9">
-        <v>140</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10">
-        <v>4000</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL10">
-        <v>80</v>
-      </c>
-      <c r="AM10">
-        <v>75</v>
-      </c>
-      <c r="AN10">
-        <v>120</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="I4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="I5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="G6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="I6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="G7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="I7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="G8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="I8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="G9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="I9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="G10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="I10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="I5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="I6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F097A98-514E-4B95-855C-DFCFF0FB3B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="86">
   <si>
     <t>Address</t>
   </si>
@@ -163,57 +157,22 @@
     <t>Необязательный</t>
   </si>
   <si>
-    <t>Может быть обязательным_x005F_x000D_
-Подробнее</t>
-  </si>
-  <si>
-    <t>Может стать обязательным c 28.05.2024_x005F_x000D_
-Подробнее</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
-  </si>
-  <si>
-    <t>Мебель и интерьер</t>
-  </si>
-  <si>
-    <t>Столы и стулья</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Б/у</t>
-  </si>
-  <si>
-    <t>В наличии</t>
-  </si>
-  <si>
-    <t>Коричневый</t>
-  </si>
-  <si>
-    <t>Столы</t>
-  </si>
-  <si>
-    <t>Письменный</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>ДСП</t>
-  </si>
-  <si>
-    <t>Кабинет</t>
-  </si>
-  <si>
-    <t>Тумба</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
     <t>Стол компьютерный угловой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Офисный стол </t>
+  </si>
+  <si>
+    <t>Стол офисный угловой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол угловой с тумбой </t>
+  </si>
+  <si>
+    <t>Угловой стол компьютерный</t>
+  </si>
+  <si>
+    <t>Компьютерный стол с тумбой</t>
   </si>
   <si>
     <t>Стол угловой
@@ -237,15 +196,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/fbi6t0DrL5Ye6A | https://disk.yandex.ru/i/B0H4munIi3QmJw | https://disk.yandex.ru/i/C8iHkJRP_sTEqQ | https://disk.yandex.ru/i/2O2fz6OoUUqajQ | https://disk.yandex.ru/i/8UL_l2ZCuDBLNg</t>
-  </si>
-  <si>
-    <t>Угловой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисный стол </t>
-  </si>
-  <si>
     <t>Стол эргономичный 
 Артикул 2038
 Описание: офисные столы бу классического цвета темный орех. Стол с небольшим вырезом создает большую комфортную рабочую зону, в отличии от прямых столов. Столы бу имеют небольшие дефекты. 
@@ -263,12 +213,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/Dp8VchaJ7Unvig | https://disk.yandex.ru/i/hY3ALU-BQlNCjg | https://disk.yandex.ru/i/zcFZ8i-3peFbkQ | https://disk.yandex.ru/i/pMVCQRlolpTyeQ | https://disk.yandex.ru/i/DOkh1MOTbFXfRQ | https://disk.yandex.ru/i/fULiZoSMfNG2mQ</t>
-  </si>
-  <si>
-    <t>Стол офисный угловой</t>
   </si>
   <si>
     <t>Артикул 694, 373, 1409
@@ -290,12 +234,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/YFHBkVHR8OaOIg | https://disk.yandex.ru/i/U1DTSb-aXN5TJg | https://disk.yandex.ru/i/Kvqjnr5gsAj_aA | https://disk.yandex.ru/i/TMATmVG2jtixKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол угловой с тумбой </t>
   </si>
   <si>
     <t xml:space="preserve">Стол угловой с тумбой 
@@ -324,24 +262,165 @@
                  </t>
   </si>
   <si>
+    <t xml:space="preserve">Угловой стол компьютерный
+Артикул 2359-60
+Элегантный угловой офисный стол цвета венге — стильное и функциональное решение для современного рабочего пространства. Большая рабочая поверхность создает комфортные условия для работы, а угловая конструкция помогает оптимально использовать пространство кабинета. Встроенная тумба с несколькими вместительными ящиками идеально подходит для хранения документов, канцелярии и других рабочих принадлежностей. Стол цвета венге добавит офису солидности и стиля, а его прочные материалы и устойчивое основание обеспечат долгий срок службы.
+Размеры ДхШхВ: 140х118х76
+Цвет венге
+Цена 10 000 руб
+Количество
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерный стол с тумбой
+Артикул 2370-71
+Офисный угловой стол цвета сосны на металлических ножках — это идеальное решение для современного рабочего пространства. Благодаря угловой форме, стол максимально эффективно использует площадь, предоставляя просторную рабочую поверхность. Встроенная тумба с несколькими ящиками обеспечивает удобное хранение документов и офисных принадлежностей.
+Отверстие для проводов помогает организовать рабочее место, скрывая все кабели и сохраняя порядок. Прочные металлические ножки гарантируют стабильность и долговечность конструкции.
+Размеры ДхШхВ: Стол - 140х120х75
+Цвет: сосна
+Цена: 4 999 
+ПРОДАЁТСЯ КОМПЛЕКТОМ СТОЛ+ТУМБА. 
+Количество 28 шт.  (уточняйте)
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/fbi6t0DrL5Ye6A | https://disk.yandex.ru/i/B0H4munIi3QmJw | https://disk.yandex.ru/i/C8iHkJRP_sTEqQ | https://disk.yandex.ru/i/2O2fz6OoUUqajQ | https://disk.yandex.ru/i/8UL_l2ZCuDBLNg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Dp8VchaJ7Unvig | https://disk.yandex.ru/i/hY3ALU-BQlNCjg | https://disk.yandex.ru/i/zcFZ8i-3peFbkQ | https://disk.yandex.ru/i/pMVCQRlolpTyeQ | https://disk.yandex.ru/i/DOkh1MOTbFXfRQ | https://disk.yandex.ru/i/fULiZoSMfNG2mQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/YFHBkVHR8OaOIg | https://disk.yandex.ru/i/U1DTSb-aXN5TJg | https://disk.yandex.ru/i/Kvqjnr5gsAj_aA | https://disk.yandex.ru/i/TMATmVG2jtixKA</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/uNmkA_2U25i67A | https://disk.yandex.ru/i/31YuLrCE8pppHg | https://disk.yandex.ru/i/KQxB5mVI_naDZA | https://disk.yandex.ru/i/hRgdRBJkBKIa_w | https://disk.yandex.ru/i/yTtUBWkxgn54lQ | https://disk.yandex.ru/i/wA6Nl5g3X11J6g | https://disk.yandex.ru/i/FnibuaFp5km8pg | https://disk.yandex.ru/i/ga69Ri5rvY37Zg</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/cFufIrcb9v9-dQ | https://disk.yandex.ru/i/FuBv5hPa_O3V1w | https://disk.yandex.ru/i/QiCfpTAvBHhRww | https://disk.yandex.ru/i/KKdURPW_gELV-w | https://disk.yandex.ru/i/KWrBrxdFXq5GVg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Ara9b_4wd8sDtw | https://disk.yandex.ru/i/gqgZmxZYt1fsgQ | https://disk.yandex.ru/i/0Dl22w6bBYc8xA | https://disk.yandex.ru/i/HRnd-b3cWTnOkw | https://disk.yandex.ru/i/nUyViw3R7aY2ew | https://disk.yandex.ru/i/TXcKs1Dof2cP8A | https://disk.yandex.ru/i/dInfX-hvLmREBQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
+  </si>
+  <si>
+    <t>Мебель и интерьер</t>
+  </si>
+  <si>
+    <t>Столы и стулья</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Б/у</t>
+  </si>
+  <si>
+    <t>Может быть обязательным_x005F_x000D_
+Подробнее</t>
+  </si>
+  <si>
+    <t>В наличии</t>
+  </si>
+  <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
     <t xml:space="preserve">Венге </t>
   </si>
   <si>
+    <t>Столы</t>
+  </si>
+  <si>
+    <t>Письменный</t>
+  </si>
+  <si>
+    <t>Может стать обязательным c 28.05.2024_x005F_x000D_
+Подробнее</t>
+  </si>
+  <si>
+    <t>Угловой</t>
+  </si>
+  <si>
+    <t>Прямоугольный</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>ДСП</t>
+  </si>
+  <si>
     <t xml:space="preserve">ДСП </t>
+  </si>
+  <si>
+    <t>Тумба</t>
+  </si>
+  <si>
+    <t>Кабинет</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,13 +428,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -392,32 +465,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -465,13 +530,71 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,7 +602,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -502,7 +625,7 @@
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -576,13 +699,24 @@
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -604,9 +738,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -621,7 +757,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -632,16 +770,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="A7:XFD8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,7 +914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -867,10 +1003,10 @@
         <v>45</v>
       </c>
       <c r="AD2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s">
         <v>46</v>
@@ -882,84 +1018,84 @@
         <v>45</v>
       </c>
       <c r="AI2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>4499</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="AA3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AB3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="AC3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="AD3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="AL3">
         <v>120</v>
@@ -971,60 +1107,60 @@
         <v>160</v>
       </c>
       <c r="AP3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="AQ3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="AS3" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45">
       <c r="D4" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>2999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="AA4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AB4" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="AC4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="AD4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="AH4" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1036,60 +1172,60 @@
         <v>120</v>
       </c>
       <c r="AP4" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="AQ4" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="AS4" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45">
       <c r="D5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <v>2999</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD5" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>54</v>
-      </c>
       <c r="AE5" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1101,63 +1237,63 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="AQ5" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="AS5" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45">
       <c r="D6" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>15000</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>76</v>
       </c>
-      <c r="AH6" t="s">
-        <v>56</v>
-      </c>
       <c r="AI6" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AK6" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="AL6">
         <v>90</v>
@@ -1169,30 +1305,175 @@
         <v>140</v>
       </c>
       <c r="AP6" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="AQ6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s">
         <v>77</v>
       </c>
-      <c r="AR6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>60</v>
+      <c r="AJ7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL7">
+        <v>118</v>
+      </c>
+      <c r="AM7">
+        <v>76</v>
+      </c>
+      <c r="AN7">
+        <v>140</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8">
+        <v>4999</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL8">
+        <v>120</v>
+      </c>
+      <c r="AM8">
+        <v>75</v>
+      </c>
+      <c r="AN8">
+        <v>140</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="I4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="I5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="G6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="I6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="I4" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="I5" r:id="rId6"/>
+    <hyperlink ref="G6" r:id="rId7"/>
+    <hyperlink ref="I6" r:id="rId8"/>
+    <hyperlink ref="G7" r:id="rId9"/>
+    <hyperlink ref="I7" r:id="rId10"/>
+    <hyperlink ref="G8" r:id="rId11"/>
+    <hyperlink ref="I8" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
   <si>
     <t>Address</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Компьютерный стол с тумбой</t>
+  </si>
+  <si>
+    <t>Стол угловой с тумбой</t>
   </si>
   <si>
     <t>Стол угловой
@@ -320,6 +323,34 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Стол угловой с тумбой
+Артикул 2180-81
+Угловой офисный стол в современном стиле цвета орех-пекан — это стильное и функциональное решение для продуктивной работы. Широкая столешница обеспечивает удобное рабочее пространство, а приставная тумба, удлиняющая стол, добавляет практичности, создавая дополнительное место для документов, техники или аксессуаров. Элегантное сочетание цвета орех-пекан и продуманного дизайна придает столу презентабельный вид, который отлично впишется в интерьер современного офиса.
+Размеры ДхШхВ: 140х120х75
+Цвет: орех пекан
+Цена: 9 999 (цена может уменьшаться в зависимости от состояния)
+Количество 5 шт.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/fbi6t0DrL5Ye6A | https://disk.yandex.ru/i/B0H4munIi3QmJw | https://disk.yandex.ru/i/C8iHkJRP_sTEqQ | https://disk.yandex.ru/i/2O2fz6OoUUqajQ | https://disk.yandex.ru/i/8UL_l2ZCuDBLNg</t>
   </si>
   <si>
@@ -336,6 +367,9 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/Ara9b_4wd8sDtw | https://disk.yandex.ru/i/gqgZmxZYt1fsgQ | https://disk.yandex.ru/i/0Dl22w6bBYc8xA | https://disk.yandex.ru/i/HRnd-b3cWTnOkw | https://disk.yandex.ru/i/nUyViw3R7aY2ew | https://disk.yandex.ru/i/TXcKs1Dof2cP8A | https://disk.yandex.ru/i/dInfX-hvLmREBQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/BjrE3astBk5Dsw | https://disk.yandex.ru/i/gX2ulfoa5Qp4EA | https://disk.yandex.ru/i/MswMLPFJEp_j5w | https://disk.yandex.ru/i/WOlI3ZfYG4KtCg | https://disk.yandex.ru/i/UesC2FC1XwdZMg | https://disk.yandex.ru/i/2t82psgDt0oTrw | https://disk.yandex.ru/i/_8iKw0QztsDWVA</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -771,7 +805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS8"/>
+  <dimension ref="A1:AS9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1003,10 +1037,10 @@
         <v>45</v>
       </c>
       <c r="AD2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AF2" t="s">
         <v>46</v>
@@ -1018,31 +1052,31 @@
         <v>45</v>
       </c>
       <c r="AI2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AL2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AN2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AO2" t="s">
         <v>46</v>
       </c>
       <c r="AP2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AQ2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AR2" t="s">
         <v>46</v>
@@ -1056,46 +1090,46 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>4499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="S3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AA3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AK3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AL3">
         <v>120</v>
@@ -1107,13 +1141,13 @@
         <v>160</v>
       </c>
       <c r="AP3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AQ3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AS3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1121,46 +1155,46 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>2999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="S4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AA4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AK4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1172,13 +1206,13 @@
         <v>120</v>
       </c>
       <c r="AP4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AQ4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AS4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1186,46 +1220,46 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>2999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AA5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AK5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1237,13 +1271,13 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AQ5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AS5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1251,49 +1285,49 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6">
         <v>15000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="S6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AA6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AB6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AK6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AL6">
         <v>90</v>
@@ -1305,16 +1339,16 @@
         <v>140</v>
       </c>
       <c r="AP6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AQ6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AR6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AS6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1322,49 +1356,49 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>10000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AA7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AC7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AK7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AL7">
         <v>118</v>
@@ -1376,16 +1410,16 @@
         <v>140</v>
       </c>
       <c r="AP7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AQ7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AR7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AS7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1393,49 +1427,49 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8">
         <v>4999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AA8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AC8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AK8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AL8">
         <v>120</v>
@@ -1447,16 +1481,87 @@
         <v>140</v>
       </c>
       <c r="AP8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>9999</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9">
+        <v>2180</v>
+      </c>
+      <c r="S9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>82</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR8" t="s">
+      <c r="AK9" t="s">
         <v>84</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AL9">
+        <v>120</v>
+      </c>
+      <c r="AM9">
+        <v>75</v>
+      </c>
+      <c r="AN9">
+        <v>140</v>
+      </c>
+      <c r="AP9" t="s">
         <v>85</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1473,6 +1578,8 @@
     <hyperlink ref="I7" r:id="rId10"/>
     <hyperlink ref="G8" r:id="rId11"/>
     <hyperlink ref="I8" r:id="rId12"/>
+    <hyperlink ref="G9" r:id="rId13"/>
+    <hyperlink ref="I9" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3080B5-641D-4C69-B747-06AC70D74AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3195" yWindow="3480" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
   <si>
     <t>Address</t>
   </si>
@@ -149,12 +155,6 @@
   </si>
   <si>
     <t>Purpose</t>
-  </si>
-  <si>
-    <t>Обязательный</t>
-  </si>
-  <si>
-    <t>Необязательный</t>
   </si>
   <si>
     <t>Стол компьютерный угловой</t>
@@ -390,10 +390,6 @@
     <t>Б/у</t>
   </si>
   <si>
-    <t>Может быть обязательным_x005F_x000D_
-Подробнее</t>
-  </si>
-  <si>
     <t>В наличии</t>
   </si>
   <si>
@@ -410,10 +406,6 @@
   </si>
   <si>
     <t>Письменный</t>
-  </si>
-  <si>
-    <t>Может стать обязательным c 28.05.2024_x005F_x000D_
-Подробнее</t>
   </si>
   <si>
     <t>Угловой</t>
@@ -440,8 +432,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,18 +504,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -561,7 +561,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -595,6 +595,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -629,9 +630,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -804,14 +806,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AS8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,253 +952,190 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2">
+        <v>4499</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2">
+        <v>2111</v>
+      </c>
+      <c r="S2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2">
+        <v>120</v>
+      </c>
+      <c r="AM2">
+        <v>75</v>
+      </c>
+      <c r="AN2">
+        <v>160</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3">
-        <v>4499</v>
+        <v>2999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3">
+        <v>2038</v>
+      </c>
+      <c r="S3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" t="s">
         <v>68</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AB3" t="s">
         <v>69</v>
       </c>
-      <c r="AA3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>71</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE3" t="s">
         <v>73</v>
       </c>
-      <c r="AD3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
         <v>76</v>
       </c>
-      <c r="AH3" t="s">
-        <v>79</v>
-      </c>
       <c r="AI3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK3" t="s">
         <v>80</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>84</v>
-      </c>
       <c r="AL3">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM3">
         <v>75</v>
       </c>
       <c r="AN3">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AP3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AQ3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>2999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4">
+        <v>694</v>
+      </c>
+      <c r="S4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" t="s">
         <v>68</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AB4" t="s">
         <v>69</v>
       </c>
-      <c r="AA4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>71</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE4" t="s">
         <v>73</v>
       </c>
-      <c r="AD4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
         <v>76</v>
       </c>
-      <c r="AH4" t="s">
-        <v>79</v>
-      </c>
       <c r="AI4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK4" t="s">
         <v>80</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>84</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1203,66 +1144,72 @@
         <v>75</v>
       </c>
       <c r="AN4">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AP4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AQ4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5">
-        <v>2999</v>
+        <v>15000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5">
+        <v>2891</v>
+      </c>
+      <c r="S5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA5" t="s">
         <v>68</v>
       </c>
-      <c r="S5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>70</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>71</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE5" t="s">
         <v>73</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>75</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
         <v>76</v>
       </c>
-      <c r="AH5" t="s">
-        <v>79</v>
-      </c>
       <c r="AI5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK5" t="s">
         <v>80</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>84</v>
-      </c>
       <c r="AL5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM5">
         <v>75</v>
@@ -1271,205 +1218,208 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AQ5" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>83</v>
       </c>
       <c r="AS5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA6" t="s">
         <v>68</v>
       </c>
-      <c r="S6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>70</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s">
         <v>72</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>73</v>
       </c>
-      <c r="AD6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
         <v>76</v>
       </c>
-      <c r="AF6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>79</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AK6" t="s">
         <v>80</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>84</v>
-      </c>
       <c r="AL6">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="AM6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN6">
         <v>140</v>
       </c>
       <c r="AP6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AQ6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AS6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7">
-        <v>10000</v>
+        <v>4999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AA7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7" t="s">
         <v>70</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD7" t="s">
         <v>72</v>
       </c>
-      <c r="AC7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL7">
+        <v>120</v>
+      </c>
+      <c r="AM7">
         <v>75</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL7">
-        <v>118</v>
-      </c>
-      <c r="AM7">
-        <v>76</v>
       </c>
       <c r="AN7">
         <v>140</v>
       </c>
       <c r="AP7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AQ7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AS7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8">
-        <v>4999</v>
+        <v>9999</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8">
+        <v>2180</v>
+      </c>
+      <c r="S8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA8" t="s">
         <v>68</v>
       </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="S8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>70</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s">
         <v>72</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>73</v>
       </c>
-      <c r="AD8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE8" t="s">
+      <c r="AH8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI8" t="s">
         <v>77</v>
       </c>
-      <c r="AH8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK8" t="s">
         <v>80</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>84</v>
       </c>
       <c r="AL8">
         <v>120</v>
@@ -1481,105 +1431,34 @@
         <v>140</v>
       </c>
       <c r="AP8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AQ8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AS8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9">
-        <v>9999</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9">
-        <v>2180</v>
-      </c>
-      <c r="S9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK9" t="s">
         <v>84</v>
-      </c>
-      <c r="AL9">
-        <v>120</v>
-      </c>
-      <c r="AM9">
-        <v>75</v>
-      </c>
-      <c r="AN9">
-        <v>140</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="I4" r:id="rId4"/>
-    <hyperlink ref="G5" r:id="rId5"/>
-    <hyperlink ref="I5" r:id="rId6"/>
-    <hyperlink ref="G6" r:id="rId7"/>
-    <hyperlink ref="I6" r:id="rId8"/>
-    <hyperlink ref="G7" r:id="rId9"/>
-    <hyperlink ref="I7" r:id="rId10"/>
-    <hyperlink ref="G8" r:id="rId11"/>
-    <hyperlink ref="I8" r:id="rId12"/>
-    <hyperlink ref="G9" r:id="rId13"/>
-    <hyperlink ref="I9" r:id="rId14"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3080B5-641D-4C69-B747-06AC70D74AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62AE67B-1977-43E9-946E-12078D266E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3480" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,112 +157,25 @@
     <t>Purpose</t>
   </si>
   <si>
+    <t>Угловой стол компьютерный</t>
+  </si>
+  <si>
+    <t>Компьютерный стол с тумбой</t>
+  </si>
+  <si>
+    <t>Стол офисный угловой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Офисный стол </t>
+  </si>
+  <si>
     <t>Стол компьютерный угловой</t>
   </si>
   <si>
-    <t xml:space="preserve">Офисный стол </t>
-  </si>
-  <si>
-    <t>Стол офисный угловой</t>
+    <t>Стол угловой с тумбой</t>
   </si>
   <si>
     <t xml:space="preserve">Стол угловой с тумбой </t>
-  </si>
-  <si>
-    <t>Угловой стол компьютерный</t>
-  </si>
-  <si>
-    <t>Компьютерный стол с тумбой</t>
-  </si>
-  <si>
-    <t>Стол угловой с тумбой</t>
-  </si>
-  <si>
-    <t>Стол угловой
-Артикул 2111, 2112
-Описание: Офисные угловые столы бу. Столы очень удобные имеют большую рабочую зону и хорошую обтекаемую форму, которая позволяет принять удобное для тела положение при работе. 
-К столам можем подобрать приставные тумбы вровень стола, шкаф для документов и гардеробы подходящего вам размера 
-Размер 160х120
-Цвет орех 
-Цена 4500 
-Количество левосторонние-12 шт, правосторонние-13 шт
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стол эргономичный 
-Артикул 2038
-Описание: офисные столы бу классического цвета темный орех. Стол с небольшим вырезом создает большую комфортную рабочую зону, в отличии от прямых столов. Столы бу имеют небольшие дефекты. 
-Размер 149х80-2999(с дефектами), 3499 (в хорошем состоянии)
-120х80 - 3000
-Количество: левосторонние- 13, правосторонние- 865edited 13:16
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Артикул 694, 373, 1409
-Описание: 140/80(100), 140/90, 140/120
-Цена: 3000, 3500, 4000
-Цвет: орех 
-Наличие: 2, 4, 4
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол угловой с тумбой 
-Артикул 2891
-Угловой офисный стол в современном дизайне цвета венге — идеальное решение для стильного и функционального рабочего пространства. Прочная толстая столешница и крепкие ножки обеспечивают надежность и устойчивость стола, что делает его долговечным и удобным в использовании. В комплекте идет тумба на колесиках для удобного хранения документов и мелочей, а также приставка, которая увеличивает рабочую поверхность, создавая дополнительное пространство для комфортной работы. Этот стол станет отличным выбором для тех, кто ценит качество и стиль. На столе есть небольшие деффекты!!!
-Размер: Стол - 140х90х75
-Приставка: длина 40
-Цвет венге 
-Цена 15 000 
-Количество: 3 шт.
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-                 ➕ При поиске нас в навигаторе наберите – 
-                 Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
-                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-                 -------------------------------------------------------------------
-                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-                 Можем укомплектовать 100-200 рабочих мест.
-                 </t>
   </si>
   <si>
     <t xml:space="preserve">Угловой стол компьютерный
@@ -323,6 +236,67 @@
     </t>
   </si>
   <si>
+    <t>Артикул 694, 373, 1409
+Описание: 140/80(100), 140/90, 140/120
+Цена: 3000, 3500, 4000
+Цвет: орех 
+Наличие: 2, 4, 4
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стол эргономичный 
+Артикул 2038
+Описание: офисные столы бу классического цвета темный орех. Стол с небольшим вырезом создает большую комфортную рабочую зону, в отличии от прямых столов. Столы бу имеют небольшие дефекты. 
+Размер 149х80-2999(с дефектами), 3499 (в хорошем состоянии)
+120х80 - 3000
+Количество: левосторонние- 13, правосторонние- 865edited 13:16
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стол угловой
+Артикул 2111, 2112
+Описание: Офисные угловые столы бу. Столы очень удобные имеют большую рабочую зону и хорошую обтекаемую форму, которая позволяет принять удобное для тела положение при работе. 
+К столам можем подобрать приставные тумбы вровень стола, шкаф для документов и гардеробы подходящего вам размера 
+Размер 160х120
+Цвет орех 
+Цена 4500 
+Количество левосторонние-12 шт, правосторонние-13 шт
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Стол угловой с тумбой
 Артикул 2180-81
 Угловой офисный стол в современном стиле цвета орех-пекан — это стильное и функциональное решение для продуктивной работы. Широкая столешница обеспечивает удобное рабочее пространство, а приставная тумба, удлиняющая стол, добавляет практичности, создавая дополнительное место для документов, техники или аксессуаров. Элегантное сочетание цвета орех-пекан и продуманного дизайна придает столу презентабельный вид, который отлично впишется в интерьер современного офиса.
@@ -351,27 +325,53 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Стол угловой с тумбой 
+Артикул 2891
+Угловой офисный стол в современном дизайне цвета венге — идеальное решение для стильного и функционального рабочего пространства. Прочная толстая столешница и крепкие ножки обеспечивают надежность и устойчивость стола, что делает его долговечным и удобным в использовании. В комплекте идет тумба на колесиках для удобного хранения документов и мелочей, а также приставка, которая увеличивает рабочую поверхность, создавая дополнительное пространство для комфортной работы. Этот стол станет отличным выбором для тех, кто ценит качество и стиль. На столе есть небольшие деффекты!!!
+Размер: Стол - 140х90х75
+Приставка: длина 40
+Цвет венге 
+Цена 15 000 
+Количество: 3 шт.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+                 ➕ При поиске нас в навигаторе наберите – 
+                 Офис комфорт Одинцово 
+                 ➕ Наш телеграмм канал – office comfort es
+                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+                 -------------------------------------------------------------------
+                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+                 Можем укомплектовать 100-200 рабочих мест.
+                 </t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/cFufIrcb9v9-dQ | https://disk.yandex.ru/i/FuBv5hPa_O3V1w | https://disk.yandex.ru/i/QiCfpTAvBHhRww | https://disk.yandex.ru/i/KKdURPW_gELV-w | https://disk.yandex.ru/i/KWrBrxdFXq5GVg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Ara9b_4wd8sDtw | https://disk.yandex.ru/i/gqgZmxZYt1fsgQ | https://disk.yandex.ru/i/0Dl22w6bBYc8xA | https://disk.yandex.ru/i/HRnd-b3cWTnOkw | https://disk.yandex.ru/i/nUyViw3R7aY2ew | https://disk.yandex.ru/i/TXcKs1Dof2cP8A | https://disk.yandex.ru/i/dInfX-hvLmREBQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/YFHBkVHR8OaOIg | https://disk.yandex.ru/i/U1DTSb-aXN5TJg | https://disk.yandex.ru/i/Kvqjnr5gsAj_aA | https://disk.yandex.ru/i/TMATmVG2jtixKA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Dp8VchaJ7Unvig | https://disk.yandex.ru/i/hY3ALU-BQlNCjg | https://disk.yandex.ru/i/zcFZ8i-3peFbkQ | https://disk.yandex.ru/i/pMVCQRlolpTyeQ | https://disk.yandex.ru/i/DOkh1MOTbFXfRQ | https://disk.yandex.ru/i/fULiZoSMfNG2mQ</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/fbi6t0DrL5Ye6A | https://disk.yandex.ru/i/B0H4munIi3QmJw | https://disk.yandex.ru/i/C8iHkJRP_sTEqQ | https://disk.yandex.ru/i/2O2fz6OoUUqajQ | https://disk.yandex.ru/i/8UL_l2ZCuDBLNg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/Dp8VchaJ7Unvig | https://disk.yandex.ru/i/hY3ALU-BQlNCjg | https://disk.yandex.ru/i/zcFZ8i-3peFbkQ | https://disk.yandex.ru/i/pMVCQRlolpTyeQ | https://disk.yandex.ru/i/DOkh1MOTbFXfRQ | https://disk.yandex.ru/i/fULiZoSMfNG2mQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/YFHBkVHR8OaOIg | https://disk.yandex.ru/i/U1DTSb-aXN5TJg | https://disk.yandex.ru/i/Kvqjnr5gsAj_aA | https://disk.yandex.ru/i/TMATmVG2jtixKA</t>
+    <t>https://disk.yandex.ru/i/BjrE3astBk5Dsw | https://disk.yandex.ru/i/gX2ulfoa5Qp4EA | https://disk.yandex.ru/i/MswMLPFJEp_j5w | https://disk.yandex.ru/i/WOlI3ZfYG4KtCg | https://disk.yandex.ru/i/UesC2FC1XwdZMg | https://disk.yandex.ru/i/2t82psgDt0oTrw | https://disk.yandex.ru/i/_8iKw0QztsDWVA</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/uNmkA_2U25i67A | https://disk.yandex.ru/i/31YuLrCE8pppHg | https://disk.yandex.ru/i/KQxB5mVI_naDZA | https://disk.yandex.ru/i/hRgdRBJkBKIa_w | https://disk.yandex.ru/i/yTtUBWkxgn54lQ | https://disk.yandex.ru/i/wA6Nl5g3X11J6g | https://disk.yandex.ru/i/FnibuaFp5km8pg | https://disk.yandex.ru/i/ga69Ri5rvY37Zg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/cFufIrcb9v9-dQ | https://disk.yandex.ru/i/FuBv5hPa_O3V1w | https://disk.yandex.ru/i/QiCfpTAvBHhRww | https://disk.yandex.ru/i/KKdURPW_gELV-w | https://disk.yandex.ru/i/KWrBrxdFXq5GVg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/Ara9b_4wd8sDtw | https://disk.yandex.ru/i/gqgZmxZYt1fsgQ | https://disk.yandex.ru/i/0Dl22w6bBYc8xA | https://disk.yandex.ru/i/HRnd-b3cWTnOkw | https://disk.yandex.ru/i/nUyViw3R7aY2ew | https://disk.yandex.ru/i/TXcKs1Dof2cP8A | https://disk.yandex.ru/i/dInfX-hvLmREBQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/BjrE3astBk5Dsw | https://disk.yandex.ru/i/gX2ulfoa5Qp4EA | https://disk.yandex.ru/i/MswMLPFJEp_j5w | https://disk.yandex.ru/i/WOlI3ZfYG4KtCg | https://disk.yandex.ru/i/UesC2FC1XwdZMg | https://disk.yandex.ru/i/2t82psgDt0oTrw | https://disk.yandex.ru/i/_8iKw0QztsDWVA</t>
-  </si>
-  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -381,12 +381,12 @@
     <t>Столы и стулья</t>
   </si>
   <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
     <t>Товар приобретен на продажу</t>
   </si>
   <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
     <t>Б/у</t>
   </si>
   <si>
@@ -408,10 +408,10 @@
     <t>Письменный</t>
   </si>
   <si>
+    <t>Прямоугольный</t>
+  </si>
+  <si>
     <t>Угловой</t>
-  </si>
-  <si>
-    <t>Прямоугольный</t>
   </si>
   <si>
     <t>Нет</t>
@@ -521,9 +521,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -561,9 +561,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,9 +596,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,9 +648,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -810,7 +844,7 @@
   <dimension ref="A1:AS8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +994,7 @@
         <v>52</v>
       </c>
       <c r="F2">
-        <v>4499</v>
+        <v>10000</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>59</v>
@@ -969,7 +1003,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>2111</v>
+        <v>2</v>
       </c>
       <c r="S2" t="s">
         <v>67</v>
@@ -1002,19 +1036,22 @@
         <v>80</v>
       </c>
       <c r="AL2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AM2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN2">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AP2" t="s">
         <v>81</v>
       </c>
       <c r="AQ2" t="s">
         <v>81</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>83</v>
       </c>
       <c r="AS2" t="s">
         <v>84</v>
@@ -1028,7 +1065,7 @@
         <v>53</v>
       </c>
       <c r="F3">
-        <v>2999</v>
+        <v>4999</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>60</v>
@@ -1037,7 +1074,7 @@
         <v>66</v>
       </c>
       <c r="K3">
-        <v>2038</v>
+        <v>2</v>
       </c>
       <c r="S3" t="s">
         <v>67</v>
@@ -1055,7 +1092,7 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s">
         <v>76</v>
@@ -1070,19 +1107,22 @@
         <v>80</v>
       </c>
       <c r="AL3">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM3">
         <v>75</v>
       </c>
       <c r="AN3">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AP3" t="s">
         <v>81</v>
       </c>
       <c r="AQ3" t="s">
         <v>81</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>83</v>
       </c>
       <c r="AS3" t="s">
         <v>84</v>
@@ -1114,7 +1154,7 @@
         <v>68</v>
       </c>
       <c r="AB4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="s">
         <v>71</v>
@@ -1132,7 +1172,7 @@
         <v>77</v>
       </c>
       <c r="AJ4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s">
         <v>80</v>
@@ -1164,7 +1204,7 @@
         <v>55</v>
       </c>
       <c r="F5">
-        <v>15000</v>
+        <v>2999</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>62</v>
@@ -1173,7 +1213,7 @@
         <v>66</v>
       </c>
       <c r="K5">
-        <v>2891</v>
+        <v>2038</v>
       </c>
       <c r="S5" t="s">
         <v>67</v>
@@ -1193,9 +1233,6 @@
       <c r="AE5" t="s">
         <v>73</v>
       </c>
-      <c r="AF5" t="s">
-        <v>75</v>
-      </c>
       <c r="AH5" t="s">
         <v>76</v>
       </c>
@@ -1203,28 +1240,25 @@
         <v>77</v>
       </c>
       <c r="AJ5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s">
         <v>80</v>
       </c>
       <c r="AL5">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM5">
         <v>75</v>
       </c>
       <c r="AN5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AP5" t="s">
         <v>81</v>
       </c>
       <c r="AQ5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="s">
         <v>84</v>
@@ -1238,7 +1272,7 @@
         <v>56</v>
       </c>
       <c r="F6">
-        <v>10000</v>
+        <v>4499</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>63</v>
@@ -1247,7 +1281,7 @@
         <v>66</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>2111</v>
       </c>
       <c r="S6" t="s">
         <v>67</v>
@@ -1280,22 +1314,19 @@
         <v>80</v>
       </c>
       <c r="AL6">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AM6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN6">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP6" t="s">
         <v>81</v>
       </c>
       <c r="AQ6" t="s">
         <v>81</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>83</v>
       </c>
       <c r="AS6" t="s">
         <v>84</v>
@@ -1309,7 +1340,7 @@
         <v>57</v>
       </c>
       <c r="F7">
-        <v>4999</v>
+        <v>9999</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>64</v>
@@ -1318,7 +1349,7 @@
         <v>66</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>2180</v>
       </c>
       <c r="S7" t="s">
         <v>67</v>
@@ -1327,7 +1358,7 @@
         <v>68</v>
       </c>
       <c r="AB7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC7" t="s">
         <v>71</v>
@@ -1336,7 +1367,7 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH7" t="s">
         <v>76</v>
@@ -1380,7 +1411,7 @@
         <v>58</v>
       </c>
       <c r="F8">
-        <v>9999</v>
+        <v>15000</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>65</v>
@@ -1389,7 +1420,7 @@
         <v>66</v>
       </c>
       <c r="K8">
-        <v>2180</v>
+        <v>2891</v>
       </c>
       <c r="S8" t="s">
         <v>67</v>
@@ -1398,7 +1429,7 @@
         <v>68</v>
       </c>
       <c r="AB8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC8" t="s">
         <v>71</v>
@@ -1409,6 +1440,9 @@
       <c r="AE8" t="s">
         <v>73</v>
       </c>
+      <c r="AF8" t="s">
+        <v>75</v>
+      </c>
       <c r="AH8" t="s">
         <v>76</v>
       </c>
@@ -1416,13 +1450,13 @@
         <v>77</v>
       </c>
       <c r="AJ8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s">
         <v>80</v>
       </c>
       <c r="AL8">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AM8">
         <v>75</v>
@@ -1434,7 +1468,7 @@
         <v>81</v>
       </c>
       <c r="AQ8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR8" t="s">
         <v>83</v>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62AE67B-1977-43E9-946E-12078D266E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -432,8 +426,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,26 +498,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -561,9 +547,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,27 +581,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,27 +615,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -840,659 +790,678 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AT8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:46">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="2" spans="1:46">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10000</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>67</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>69</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>72</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>76</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>77</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>78</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>80</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>118</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>76</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>140</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>81</v>
       </c>
       <c r="AQ2" t="s">
         <v>81</v>
       </c>
       <c r="AR2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS2" t="s">
         <v>83</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="3" spans="1:46">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4999</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>67</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>71</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>74</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>76</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>77</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>78</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>80</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>120</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>75</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>140</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>81</v>
       </c>
       <c r="AQ3" t="s">
         <v>81</v>
       </c>
       <c r="AR3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="s">
         <v>83</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="4" spans="1:46">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>54</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2999</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>694</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>68</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>70</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>71</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>72</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>73</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>76</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>77</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>79</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>80</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>80</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>75</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>140</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>81</v>
       </c>
       <c r="AQ4" t="s">
         <v>81</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AR4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="5" spans="1:46">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>55</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2999</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2038</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>67</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>68</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>70</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>71</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>72</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>73</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>76</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>77</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>79</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>80</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>80</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>75</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>120</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>81</v>
       </c>
       <c r="AQ5" t="s">
         <v>81</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AR5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="6" spans="1:46">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>56</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4499</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2111</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>67</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>68</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>70</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>71</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>72</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>73</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>76</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>77</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>79</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>80</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>120</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>75</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>160</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>81</v>
       </c>
       <c r="AQ6" t="s">
         <v>81</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AR6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="1:46">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>9999</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2180</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>67</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>68</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>69</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>71</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>72</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>73</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>76</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>77</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>79</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>80</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>120</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>75</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>140</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>81</v>
       </c>
       <c r="AQ7" t="s">
         <v>81</v>
       </c>
       <c r="AR7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="s">
         <v>83</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="8" spans="1:46">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>15000</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2891</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>67</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>68</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>69</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>71</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>72</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>73</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>75</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>76</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>77</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>79</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>80</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>90</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>75</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>140</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>81</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
         <v>82</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>83</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="H4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="H5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
+    <hyperlink ref="H6" r:id="rId9"/>
+    <hyperlink ref="J6" r:id="rId10"/>
+    <hyperlink ref="H7" r:id="rId11"/>
+    <hyperlink ref="J7" r:id="rId12"/>
+    <hyperlink ref="H8" r:id="rId13"/>
+    <hyperlink ref="J8" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -791,677 +791,656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT8"/>
+  <dimension ref="A1:AS8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2">
+        <v>10000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="S2" t="s">
         <v>67</v>
       </c>
+      <c r="AA2" t="s">
+        <v>68</v>
+      </c>
       <c r="AB2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF2" t="s">
         <v>73</v>
       </c>
+      <c r="AH2" t="s">
+        <v>76</v>
+      </c>
       <c r="AI2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2">
+        <v>118</v>
+      </c>
+      <c r="AM2">
         <v>76</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM2">
-        <v>118</v>
-      </c>
       <c r="AN2">
-        <v>76</v>
-      </c>
-      <c r="AO2">
         <v>140</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>81</v>
       </c>
       <c r="AQ2" t="s">
         <v>81</v>
       </c>
       <c r="AR2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3">
+        <v>4999</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL3">
+        <v>120</v>
+      </c>
+      <c r="AM3">
+        <v>75</v>
+      </c>
+      <c r="AN3">
+        <v>140</v>
+      </c>
+      <c r="AP3" t="s">
         <v>81</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3">
-        <v>4999</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="T3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM3">
-        <v>120</v>
-      </c>
-      <c r="AN3">
-        <v>75</v>
-      </c>
-      <c r="AO3">
-        <v>140</v>
       </c>
       <c r="AQ3" t="s">
         <v>81</v>
       </c>
       <c r="AR3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4">
+        <v>2999</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4">
+        <v>694</v>
+      </c>
+      <c r="S4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL4">
+        <v>80</v>
+      </c>
+      <c r="AM4">
+        <v>75</v>
+      </c>
+      <c r="AN4">
+        <v>140</v>
+      </c>
+      <c r="AP4" t="s">
         <v>81</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4">
-        <v>2999</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4">
-        <v>694</v>
-      </c>
-      <c r="T4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM4">
-        <v>80</v>
-      </c>
-      <c r="AN4">
-        <v>75</v>
-      </c>
-      <c r="AO4">
-        <v>140</v>
       </c>
       <c r="AQ4" t="s">
         <v>81</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>2999</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5">
+        <v>2038</v>
+      </c>
+      <c r="S5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL5">
+        <v>80</v>
+      </c>
+      <c r="AM5">
+        <v>75</v>
+      </c>
+      <c r="AN5">
+        <v>120</v>
+      </c>
+      <c r="AP5" t="s">
         <v>81</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5">
-        <v>2999</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5">
-        <v>2038</v>
-      </c>
-      <c r="T5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM5">
-        <v>80</v>
-      </c>
-      <c r="AN5">
-        <v>75</v>
-      </c>
-      <c r="AO5">
-        <v>120</v>
       </c>
       <c r="AQ5" t="s">
         <v>81</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AS5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6">
+        <v>4499</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6">
+        <v>2111</v>
+      </c>
+      <c r="S6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL6">
+        <v>120</v>
+      </c>
+      <c r="AM6">
+        <v>75</v>
+      </c>
+      <c r="AN6">
+        <v>160</v>
+      </c>
+      <c r="AP6" t="s">
         <v>81</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6">
-        <v>4499</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6">
-        <v>2111</v>
-      </c>
-      <c r="T6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM6">
-        <v>120</v>
-      </c>
-      <c r="AN6">
-        <v>75</v>
-      </c>
-      <c r="AO6">
-        <v>160</v>
       </c>
       <c r="AQ6" t="s">
         <v>81</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AS6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <v>9999</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7">
+        <v>2180</v>
+      </c>
+      <c r="S7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL7">
+        <v>120</v>
+      </c>
+      <c r="AM7">
+        <v>75</v>
+      </c>
+      <c r="AN7">
+        <v>140</v>
+      </c>
+      <c r="AP7" t="s">
         <v>81</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7">
-        <v>9999</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7">
-        <v>2180</v>
-      </c>
-      <c r="T7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM7">
-        <v>120</v>
-      </c>
-      <c r="AN7">
-        <v>75</v>
-      </c>
-      <c r="AO7">
-        <v>140</v>
       </c>
       <c r="AQ7" t="s">
         <v>81</v>
       </c>
       <c r="AR7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8">
+        <v>15000</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8">
+        <v>2891</v>
+      </c>
+      <c r="S8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL8">
+        <v>90</v>
+      </c>
+      <c r="AM8">
+        <v>75</v>
+      </c>
+      <c r="AN8">
+        <v>140</v>
+      </c>
+      <c r="AP8" t="s">
         <v>81</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AQ8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR8" t="s">
         <v>83</v>
       </c>
-      <c r="AT7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8">
-        <v>15000</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8">
-        <v>2891</v>
-      </c>
-      <c r="T8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM8">
-        <v>90</v>
-      </c>
-      <c r="AN8">
-        <v>75</v>
-      </c>
-      <c r="AO8">
-        <v>140</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>82</v>
-      </c>
       <c r="AS8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT8" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="H3" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
-    <hyperlink ref="H4" r:id="rId5"/>
-    <hyperlink ref="J4" r:id="rId6"/>
-    <hyperlink ref="H5" r:id="rId7"/>
-    <hyperlink ref="J5" r:id="rId8"/>
-    <hyperlink ref="H6" r:id="rId9"/>
-    <hyperlink ref="J6" r:id="rId10"/>
-    <hyperlink ref="H7" r:id="rId11"/>
-    <hyperlink ref="J7" r:id="rId12"/>
-    <hyperlink ref="H8" r:id="rId13"/>
-    <hyperlink ref="J8" r:id="rId14"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
   <si>
     <t>Address</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>Стол компьютерный угловой</t>
-  </si>
-  <si>
-    <t>Стол угловой с тумбой</t>
   </si>
   <si>
     <t xml:space="preserve">Стол угловой с тумбой </t>
@@ -291,34 +288,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Стол угловой с тумбой
-Артикул 2180-81
-Угловой офисный стол в современном стиле цвета орех-пекан — это стильное и функциональное решение для продуктивной работы. Широкая столешница обеспечивает удобное рабочее пространство, а приставная тумба, удлиняющая стол, добавляет практичности, создавая дополнительное место для документов, техники или аксессуаров. Элегантное сочетание цвета орех-пекан и продуманного дизайна придает столу презентабельный вид, который отлично впишется в интерьер современного офиса.
-Размеры ДхШхВ: 140х120х75
-Цвет: орех пекан
-Цена: 9 999 (цена может уменьшаться в зависимости от состояния)
-Количество 5 шт.
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол угловой с тумбой 
 Артикул 2891
 Угловой офисный стол в современном дизайне цвета венге — идеальное решение для стильного и функционального рабочего пространства. Прочная толстая столешница и крепкие ножки обеспечивают надежность и устойчивость стола, что делает его долговечным и удобным в использовании. В комплекте идет тумба на колесиках для удобного хранения документов и мелочей, а также приставка, которая увеличивает рабочую поверхность, создавая дополнительное пространство для комфортной работы. Этот стол станет отличным выбором для тех, кто ценит качество и стиль. На столе есть небольшие деффекты!!!
@@ -358,9 +327,6 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/fbi6t0DrL5Ye6A | https://disk.yandex.ru/i/B0H4munIi3QmJw | https://disk.yandex.ru/i/C8iHkJRP_sTEqQ | https://disk.yandex.ru/i/2O2fz6OoUUqajQ | https://disk.yandex.ru/i/8UL_l2ZCuDBLNg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/BjrE3astBk5Dsw | https://disk.yandex.ru/i/gX2ulfoa5Qp4EA | https://disk.yandex.ru/i/MswMLPFJEp_j5w | https://disk.yandex.ru/i/WOlI3ZfYG4KtCg | https://disk.yandex.ru/i/UesC2FC1XwdZMg | https://disk.yandex.ru/i/2t82psgDt0oTrw | https://disk.yandex.ru/i/_8iKw0QztsDWVA</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/uNmkA_2U25i67A | https://disk.yandex.ru/i/31YuLrCE8pppHg | https://disk.yandex.ru/i/KQxB5mVI_naDZA | https://disk.yandex.ru/i/hRgdRBJkBKIa_w | https://disk.yandex.ru/i/yTtUBWkxgn54lQ | https://disk.yandex.ru/i/wA6Nl5g3X11J6g | https://disk.yandex.ru/i/FnibuaFp5km8pg | https://disk.yandex.ru/i/ga69Ri5rvY37Zg</t>
@@ -791,7 +757,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS8"/>
+  <dimension ref="A1:AS7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -939,49 +905,49 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2">
         <v>10000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AA2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>69</v>
       </c>
-      <c r="AC2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>72</v>
-      </c>
       <c r="AE2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" t="s">
-        <v>76</v>
-      </c>
       <c r="AI2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK2" t="s">
         <v>77</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>80</v>
       </c>
       <c r="AL2">
         <v>118</v>
@@ -993,16 +959,16 @@
         <v>140</v>
       </c>
       <c r="AP2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS2" t="s">
         <v>81</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -1010,49 +976,49 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>4999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AA3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC3" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>71</v>
       </c>
-      <c r="AD3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI3" t="s">
         <v>74</v>
       </c>
-      <c r="AH3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s">
         <v>77</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>80</v>
       </c>
       <c r="AL3">
         <v>120</v>
@@ -1064,16 +1030,16 @@
         <v>140</v>
       </c>
       <c r="AP3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS3" t="s">
         <v>81</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1081,49 +1047,49 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4">
         <v>2999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K4">
         <v>694</v>
       </c>
       <c r="S4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>68</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE4" t="s">
         <v>70</v>
       </c>
-      <c r="AC4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
         <v>73</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>76</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AK4" t="s">
         <v>77</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>80</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1135,13 +1101,13 @@
         <v>140</v>
       </c>
       <c r="AP4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS4" t="s">
         <v>81</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1149,49 +1115,49 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>2999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K5">
         <v>2038</v>
       </c>
       <c r="S5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB5" t="s">
         <v>67</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>68</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE5" t="s">
         <v>70</v>
       </c>
-      <c r="AC5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
         <v>73</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>76</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AK5" t="s">
         <v>77</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>80</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1203,13 +1169,13 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS5" t="s">
         <v>81</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1217,49 +1183,49 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>4499</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="K6">
         <v>2111</v>
       </c>
       <c r="S6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB6" t="s">
         <v>67</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>68</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE6" t="s">
         <v>70</v>
       </c>
-      <c r="AC6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
         <v>73</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>76</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AK6" t="s">
         <v>77</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>80</v>
       </c>
       <c r="AL6">
         <v>120</v>
@@ -1271,13 +1237,13 @@
         <v>160</v>
       </c>
       <c r="AP6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS6" t="s">
         <v>81</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1285,52 +1251,55 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7">
-        <v>9999</v>
+        <v>15000</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7">
+        <v>2891</v>
+      </c>
+      <c r="S7" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="AA7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB7" t="s">
         <v>66</v>
       </c>
-      <c r="K7">
-        <v>2180</v>
-      </c>
-      <c r="S7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>68</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>69</v>
       </c>
-      <c r="AC7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF7" t="s">
         <v>72</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AH7" t="s">
         <v>73</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>76</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AK7" t="s">
         <v>77</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>80</v>
-      </c>
       <c r="AL7">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AM7">
         <v>75</v>
@@ -1339,90 +1308,16 @@
         <v>140</v>
       </c>
       <c r="AP7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS7" t="s">
         <v>81</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8">
-        <v>15000</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8">
-        <v>2891</v>
-      </c>
-      <c r="S8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL8">
-        <v>90</v>
-      </c>
-      <c r="AM8">
-        <v>75</v>
-      </c>
-      <c r="AN8">
-        <v>140</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1439,8 +1334,6 @@
     <hyperlink ref="I6" r:id="rId10"/>
     <hyperlink ref="G7" r:id="rId11"/>
     <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028DC7AB-D044-447F-B3C9-CE86219DD992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -392,8 +398,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,18 +470,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -513,9 +527,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,9 +561,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,9 +613,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -756,14 +806,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,7 +952,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>45</v>
       </c>
@@ -917,7 +969,7 @@
         <v>63</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>2359</v>
       </c>
       <c r="S2" t="s">
         <v>64</v>
@@ -971,7 +1023,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>46</v>
       </c>
@@ -988,7 +1040,7 @@
         <v>63</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>2370</v>
       </c>
       <c r="S3" t="s">
         <v>64</v>
@@ -1042,7 +1094,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>47</v>
       </c>
@@ -1110,7 +1162,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>48</v>
       </c>
@@ -1178,7 +1230,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>49</v>
       </c>
@@ -1246,7 +1298,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>50</v>
       </c>
@@ -1322,18 +1374,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028DC7AB-D044-447F-B3C9-CE86219DD992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5608470E-4C8A-43F2-B87C-3AC9D5C02D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="87">
   <si>
     <t>Address</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t xml:space="preserve">Стол угловой с тумбой </t>
+  </si>
+  <si>
+    <t>Стол угловой офисный</t>
   </si>
   <si>
     <t xml:space="preserve">Угловой стол компьютерный
@@ -338,6 +341,9 @@
     <t>https://disk.yandex.ru/i/uNmkA_2U25i67A | https://disk.yandex.ru/i/31YuLrCE8pppHg | https://disk.yandex.ru/i/KQxB5mVI_naDZA | https://disk.yandex.ru/i/hRgdRBJkBKIa_w | https://disk.yandex.ru/i/yTtUBWkxgn54lQ | https://disk.yandex.ru/i/wA6Nl5g3X11J6g | https://disk.yandex.ru/i/FnibuaFp5km8pg | https://disk.yandex.ru/i/ga69Ri5rvY37Zg</t>
   </si>
   <si>
+    <t>https://yadi.sk/i/vCCF-iXpA_8frg | https://yadi.sk/i/tdC-4PET_LDFiA | https://yadi.sk/i/vDUMuytr1KRuhQ | https://yadi.sk/i/93U19GjQ3Ka2Cg | https://yadi.sk/i/QSIcbKee_WhELg | https://yadi.sk/i/69abF5DeXfd8yw | https://yadi.sk/i/XRqHYAUr0waX5g | https://yadi.sk/i/8cxeRkqutS17yA | https://yadi.sk/i/KDMqdHQDOjjM4Q | https://yadi.sk/i/3HAOaXzInw-Bew</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -365,6 +371,9 @@
     <t>Бежевый</t>
   </si>
   <si>
+    <t>Серый</t>
+  </si>
+  <si>
     <t xml:space="preserve">Венге </t>
   </si>
   <si>
@@ -389,10 +398,43 @@
     <t xml:space="preserve">ДСП </t>
   </si>
   <si>
+    <t>Металл</t>
+  </si>
+  <si>
     <t>Тумба</t>
   </si>
   <si>
     <t>Кабинет</t>
+  </si>
+  <si>
+    <t>Стол угловой офисный
+Артикул 2427
+Угловой офисный стол от немецкого производителя мебели Bene, идеально сочетающий стиль, качество и функциональность.
+Мебель от Bene отличается высоким стандартом качества и современным европейским дизайном, что делает этот стол не только практичным решением, но и стильным элементом вашего офиса.
+Особенности:
+- Надежный металлический каркас: обеспечивает прочность, долговечность и современный внешний вид.
+- Эргономичный дизайн: угловая конструкция позволяет эффективно использовать пространство и создает комфортную рабочую зону.
+- Организация рабочего пространства: встроенное отверстие для проводов помогает поддерживать порядок и упрощает подключение техники.
+- Тумба в комплекте: удлиняет рабочую поверхность, предоставляя дополнительное место для документов и оргтехники.
+- Функциональность тумбы: оснащена замком для безопасности и органайзером для удобного хранения канцелярии.
+Размеры ДхШхВ: 160х114х74
+Цвет: серый
+Цена: 17 999 руб
+Количество: уточняйте
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
 </sst>
 </file>
@@ -462,12 +504,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -807,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AS8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,49 +1002,49 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>10000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K2">
         <v>2359</v>
       </c>
       <c r="S2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AC2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AL2">
         <v>118</v>
@@ -1011,16 +1056,16 @@
         <v>140</v>
       </c>
       <c r="AP2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AQ2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AS2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -1028,49 +1073,49 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>4999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K3">
         <v>2370</v>
       </c>
       <c r="S3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AC3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AD3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AL3">
         <v>120</v>
@@ -1082,16 +1127,16 @@
         <v>140</v>
       </c>
       <c r="AP3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AQ3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AS3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
@@ -1099,49 +1144,49 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>2999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K4">
         <v>694</v>
       </c>
       <c r="S4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AC4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AD4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1153,13 +1198,13 @@
         <v>140</v>
       </c>
       <c r="AP4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AQ4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -1167,49 +1212,49 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <v>2999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K5">
         <v>2038</v>
       </c>
       <c r="S5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AC5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AD5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1221,13 +1266,13 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AQ5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -1235,49 +1280,49 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>4499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K6">
         <v>2111</v>
       </c>
       <c r="S6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AC6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AD6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AK6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AL6">
         <v>120</v>
@@ -1289,13 +1334,13 @@
         <v>160</v>
       </c>
       <c r="AP6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AQ6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -1303,52 +1348,52 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7">
         <v>15000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K7">
         <v>2891</v>
       </c>
       <c r="S7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AC7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AD7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AK7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AL7">
         <v>90</v>
@@ -1360,16 +1405,87 @@
         <v>140</v>
       </c>
       <c r="AP7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AQ7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8">
+        <v>17999</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8">
+        <v>2427</v>
+      </c>
+      <c r="S8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>79</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AK8" t="s">
         <v>80</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AL8">
+        <v>114</v>
+      </c>
+      <c r="AM8">
+        <v>74</v>
+      </c>
+      <c r="AN8">
+        <v>160</v>
+      </c>
+      <c r="AP8" t="s">
         <v>81</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1386,6 +1502,8 @@
     <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5608470E-4C8A-43F2-B87C-3AC9D5C02D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -323,90 +317,6 @@
                  </t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/cFufIrcb9v9-dQ | https://disk.yandex.ru/i/FuBv5hPa_O3V1w | https://disk.yandex.ru/i/QiCfpTAvBHhRww | https://disk.yandex.ru/i/KKdURPW_gELV-w | https://disk.yandex.ru/i/KWrBrxdFXq5GVg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/Ara9b_4wd8sDtw | https://disk.yandex.ru/i/gqgZmxZYt1fsgQ | https://disk.yandex.ru/i/0Dl22w6bBYc8xA | https://disk.yandex.ru/i/HRnd-b3cWTnOkw | https://disk.yandex.ru/i/nUyViw3R7aY2ew | https://disk.yandex.ru/i/TXcKs1Dof2cP8A | https://disk.yandex.ru/i/dInfX-hvLmREBQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/YFHBkVHR8OaOIg | https://disk.yandex.ru/i/U1DTSb-aXN5TJg | https://disk.yandex.ru/i/Kvqjnr5gsAj_aA | https://disk.yandex.ru/i/TMATmVG2jtixKA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/Dp8VchaJ7Unvig | https://disk.yandex.ru/i/hY3ALU-BQlNCjg | https://disk.yandex.ru/i/zcFZ8i-3peFbkQ | https://disk.yandex.ru/i/pMVCQRlolpTyeQ | https://disk.yandex.ru/i/DOkh1MOTbFXfRQ | https://disk.yandex.ru/i/fULiZoSMfNG2mQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/fbi6t0DrL5Ye6A | https://disk.yandex.ru/i/B0H4munIi3QmJw | https://disk.yandex.ru/i/C8iHkJRP_sTEqQ | https://disk.yandex.ru/i/2O2fz6OoUUqajQ | https://disk.yandex.ru/i/8UL_l2ZCuDBLNg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/uNmkA_2U25i67A | https://disk.yandex.ru/i/31YuLrCE8pppHg | https://disk.yandex.ru/i/KQxB5mVI_naDZA | https://disk.yandex.ru/i/hRgdRBJkBKIa_w | https://disk.yandex.ru/i/yTtUBWkxgn54lQ | https://disk.yandex.ru/i/wA6Nl5g3X11J6g | https://disk.yandex.ru/i/FnibuaFp5km8pg | https://disk.yandex.ru/i/ga69Ri5rvY37Zg</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/vCCF-iXpA_8frg | https://yadi.sk/i/tdC-4PET_LDFiA | https://yadi.sk/i/vDUMuytr1KRuhQ | https://yadi.sk/i/93U19GjQ3Ka2Cg | https://yadi.sk/i/QSIcbKee_WhELg | https://yadi.sk/i/69abF5DeXfd8yw | https://yadi.sk/i/XRqHYAUr0waX5g | https://yadi.sk/i/8cxeRkqutS17yA | https://yadi.sk/i/KDMqdHQDOjjM4Q | https://yadi.sk/i/3HAOaXzInw-Bew</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
-  </si>
-  <si>
-    <t>Мебель и интерьер</t>
-  </si>
-  <si>
-    <t>Столы и стулья</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Б/у</t>
-  </si>
-  <si>
-    <t>В наличии</t>
-  </si>
-  <si>
-    <t>Коричневый</t>
-  </si>
-  <si>
-    <t>Бежевый</t>
-  </si>
-  <si>
-    <t>Серый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Венге </t>
-  </si>
-  <si>
-    <t>Столы</t>
-  </si>
-  <si>
-    <t>Письменный</t>
-  </si>
-  <si>
-    <t>Прямоугольный</t>
-  </si>
-  <si>
-    <t>Угловой</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>ДСП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДСП </t>
-  </si>
-  <si>
-    <t>Металл</t>
-  </si>
-  <si>
-    <t>Тумба</t>
-  </si>
-  <si>
-    <t>Кабинет</t>
-  </si>
-  <si>
     <t>Стол угловой офисный
 Артикул 2427
 Угловой офисный стол от немецкого производителя мебели Bene, идеально сочетающий стиль, качество и функциональность.
@@ -436,12 +346,96 @@
             Работаем уже 6 лет, развиваясь и улучшая сервисный центр
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
+  <si>
+    <t>https://disk.yandex.ru/i/cFufIrcb9v9-dQ | https://disk.yandex.ru/i/FuBv5hPa_O3V1w | https://disk.yandex.ru/i/QiCfpTAvBHhRww | https://disk.yandex.ru/i/KKdURPW_gELV-w | https://disk.yandex.ru/i/KWrBrxdFXq5GVg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Ara9b_4wd8sDtw | https://disk.yandex.ru/i/gqgZmxZYt1fsgQ | https://disk.yandex.ru/i/0Dl22w6bBYc8xA | https://disk.yandex.ru/i/HRnd-b3cWTnOkw | https://disk.yandex.ru/i/nUyViw3R7aY2ew | https://disk.yandex.ru/i/TXcKs1Dof2cP8A | https://disk.yandex.ru/i/dInfX-hvLmREBQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/YFHBkVHR8OaOIg | https://disk.yandex.ru/i/U1DTSb-aXN5TJg | https://disk.yandex.ru/i/Kvqjnr5gsAj_aA | https://disk.yandex.ru/i/TMATmVG2jtixKA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Dp8VchaJ7Unvig | https://disk.yandex.ru/i/hY3ALU-BQlNCjg | https://disk.yandex.ru/i/zcFZ8i-3peFbkQ | https://disk.yandex.ru/i/pMVCQRlolpTyeQ | https://disk.yandex.ru/i/DOkh1MOTbFXfRQ | https://disk.yandex.ru/i/fULiZoSMfNG2mQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/fbi6t0DrL5Ye6A | https://disk.yandex.ru/i/B0H4munIi3QmJw | https://disk.yandex.ru/i/C8iHkJRP_sTEqQ | https://disk.yandex.ru/i/2O2fz6OoUUqajQ | https://disk.yandex.ru/i/8UL_l2ZCuDBLNg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/uNmkA_2U25i67A | https://disk.yandex.ru/i/31YuLrCE8pppHg | https://disk.yandex.ru/i/KQxB5mVI_naDZA | https://disk.yandex.ru/i/hRgdRBJkBKIa_w | https://disk.yandex.ru/i/yTtUBWkxgn54lQ | https://disk.yandex.ru/i/wA6Nl5g3X11J6g | https://disk.yandex.ru/i/FnibuaFp5km8pg | https://disk.yandex.ru/i/ga69Ri5rvY37Zg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/vCCF-iXpA_8frg | https://yadi.sk/i/tdC-4PET_LDFiA | https://yadi.sk/i/vDUMuytr1KRuhQ | https://yadi.sk/i/93U19GjQ3Ka2Cg | https://yadi.sk/i/QSIcbKee_WhELg | https://yadi.sk/i/69abF5DeXfd8yw | https://yadi.sk/i/XRqHYAUr0waX5g | https://yadi.sk/i/8cxeRkqutS17yA | https://yadi.sk/i/KDMqdHQDOjjM4Q | https://yadi.sk/i/3HAOaXzInw-Bew</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
+  </si>
+  <si>
+    <t>Мебель и интерьер</t>
+  </si>
+  <si>
+    <t>Столы и стулья</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Б/у</t>
+  </si>
+  <si>
+    <t>В наличии</t>
+  </si>
+  <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
+    <t>Серый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Венге </t>
+  </si>
+  <si>
+    <t>Столы</t>
+  </si>
+  <si>
+    <t>Письменный</t>
+  </si>
+  <si>
+    <t>Прямоугольный</t>
+  </si>
+  <si>
+    <t>Угловой</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>ДСП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДСП </t>
+  </si>
+  <si>
+    <t>Металл</t>
+  </si>
+  <si>
+    <t>Тумба</t>
+  </si>
+  <si>
+    <t>Кабинет</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,37 +498,26 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -572,9 +555,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,27 +589,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -658,27 +623,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -851,16 +798,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,7 +942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45">
       <c r="D2" t="s">
         <v>45</v>
       </c>
@@ -1008,43 +953,43 @@
         <v>10000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K2">
         <v>2359</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2">
         <v>118</v>
@@ -1056,19 +1001,19 @@
         <v>140</v>
       </c>
       <c r="AP2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AS2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45">
       <c r="D3" t="s">
         <v>46</v>
       </c>
@@ -1079,43 +1024,43 @@
         <v>4999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K3">
         <v>2370</v>
       </c>
       <c r="S3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL3">
         <v>120</v>
@@ -1127,19 +1072,19 @@
         <v>140</v>
       </c>
       <c r="AP3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AS3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45">
       <c r="D4" t="s">
         <v>47</v>
       </c>
@@ -1150,43 +1095,43 @@
         <v>2999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K4">
         <v>694</v>
       </c>
       <c r="S4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1198,16 +1143,16 @@
         <v>140</v>
       </c>
       <c r="AP4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AS4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45">
       <c r="D5" t="s">
         <v>48</v>
       </c>
@@ -1218,43 +1163,43 @@
         <v>2999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K5">
         <v>2038</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1266,16 +1211,16 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AS5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45">
       <c r="D6" t="s">
         <v>49</v>
       </c>
@@ -1286,43 +1231,43 @@
         <v>4499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6">
         <v>2111</v>
       </c>
       <c r="S6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL6">
         <v>120</v>
@@ -1334,16 +1279,16 @@
         <v>160</v>
       </c>
       <c r="AP6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AS6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45">
       <c r="D7" t="s">
         <v>50</v>
       </c>
@@ -1354,46 +1299,46 @@
         <v>15000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K7">
         <v>2891</v>
       </c>
       <c r="S7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL7">
         <v>90</v>
@@ -1405,66 +1350,66 @@
         <v>140</v>
       </c>
       <c r="AP7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AS7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45">
       <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>86</v>
+      <c r="E8" t="s">
+        <v>58</v>
       </c>
       <c r="F8">
         <v>17999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K8">
         <v>2427</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL8">
         <v>114</v>
@@ -1476,34 +1421,34 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AR8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AS8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C33353-2DEB-434E-99B5-227F01A24FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -365,9 +371,6 @@
     <t>https://disk.yandex.ru/i/uNmkA_2U25i67A | https://disk.yandex.ru/i/31YuLrCE8pppHg | https://disk.yandex.ru/i/KQxB5mVI_naDZA | https://disk.yandex.ru/i/hRgdRBJkBKIa_w | https://disk.yandex.ru/i/yTtUBWkxgn54lQ | https://disk.yandex.ru/i/wA6Nl5g3X11J6g | https://disk.yandex.ru/i/FnibuaFp5km8pg | https://disk.yandex.ru/i/ga69Ri5rvY37Zg</t>
   </si>
   <si>
-    <t>https://yadi.sk/i/vCCF-iXpA_8frg | https://yadi.sk/i/tdC-4PET_LDFiA | https://yadi.sk/i/vDUMuytr1KRuhQ | https://yadi.sk/i/93U19GjQ3Ka2Cg | https://yadi.sk/i/QSIcbKee_WhELg | https://yadi.sk/i/69abF5DeXfd8yw | https://yadi.sk/i/XRqHYAUr0waX5g | https://yadi.sk/i/8cxeRkqutS17yA | https://yadi.sk/i/KDMqdHQDOjjM4Q | https://yadi.sk/i/3HAOaXzInw-Bew</t>
-  </si>
-  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -429,13 +432,16 @@
   </si>
   <si>
     <t>Кабинет</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/vCCF-iXpA_8frg | https://disk.yandex.ru/i/tdC-4PET_LDFiA | https://disk.yandex.ru/i/vDUMuytr1KRuhQ | https://disk.yandex.ru/i/93U19GjQ3Ka2Cg | https://disk.yandex.ru/i/QSIcbKee_WhELg | https://disk.yandex.ru/i/69abF5DeXfd8yw | https://disk.yandex.ru/i/XRqHYAUr0waX5g | https://disk.yandex.ru/i/8cxeRkqutS17yA | https://disk.yandex.ru/i/KDMqdHQDOjjM4Q | https://disk.yandex.ru/i/3HAOaXzInw-Bew</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,18 +512,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -555,9 +569,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,9 +603,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -623,9 +655,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -798,14 +848,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>45</v>
       </c>
@@ -956,40 +1008,40 @@
         <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K2">
         <v>2359</v>
       </c>
       <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" t="s">
         <v>67</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" t="s">
-        <v>69</v>
-      </c>
       <c r="AC2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD2" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>72</v>
       </c>
-      <c r="AE2" t="s">
-        <v>73</v>
-      </c>
       <c r="AH2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" t="s">
         <v>77</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>78</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>79</v>
-      </c>
       <c r="AK2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL2">
         <v>118</v>
@@ -1001,19 +1053,19 @@
         <v>140</v>
       </c>
       <c r="AP2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" t="s">
         <v>85</v>
       </c>
-      <c r="AS2" t="s">
-        <v>86</v>
-      </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>46</v>
       </c>
@@ -1027,40 +1079,40 @@
         <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3">
         <v>2370</v>
       </c>
       <c r="S3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" t="s">
         <v>67</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" t="s">
-        <v>69</v>
-      </c>
       <c r="AC3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD3" t="s">
         <v>71</v>
       </c>
-      <c r="AD3" t="s">
-        <v>72</v>
-      </c>
       <c r="AE3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI3" t="s">
         <v>77</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>78</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>79</v>
-      </c>
       <c r="AK3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL3">
         <v>120</v>
@@ -1072,19 +1124,19 @@
         <v>140</v>
       </c>
       <c r="AP3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS3" t="s">
         <v>85</v>
       </c>
-      <c r="AS3" t="s">
-        <v>86</v>
-      </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>47</v>
       </c>
@@ -1098,40 +1150,40 @@
         <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4">
         <v>694</v>
       </c>
       <c r="S4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" t="s">
-        <v>68</v>
-      </c>
       <c r="AB4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC4" t="s">
         <v>70</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>71</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>72</v>
       </c>
-      <c r="AE4" t="s">
-        <v>73</v>
-      </c>
       <c r="AH4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s">
         <v>77</v>
       </c>
-      <c r="AI4" t="s">
-        <v>78</v>
-      </c>
       <c r="AJ4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK4" t="s">
         <v>80</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>81</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1143,16 +1195,16 @@
         <v>140</v>
       </c>
       <c r="AP4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>48</v>
       </c>
@@ -1166,40 +1218,40 @@
         <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5">
         <v>2038</v>
       </c>
       <c r="S5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA5" t="s">
         <v>67</v>
       </c>
-      <c r="AA5" t="s">
-        <v>68</v>
-      </c>
       <c r="AB5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC5" t="s">
         <v>70</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>71</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>72</v>
       </c>
-      <c r="AE5" t="s">
-        <v>73</v>
-      </c>
       <c r="AH5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI5" t="s">
         <v>77</v>
       </c>
-      <c r="AI5" t="s">
-        <v>78</v>
-      </c>
       <c r="AJ5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK5" t="s">
         <v>80</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>81</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1211,16 +1263,16 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>49</v>
       </c>
@@ -1234,40 +1286,40 @@
         <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6">
         <v>2111</v>
       </c>
       <c r="S6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA6" t="s">
         <v>67</v>
       </c>
-      <c r="AA6" t="s">
-        <v>68</v>
-      </c>
       <c r="AB6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC6" t="s">
         <v>70</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>71</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>72</v>
       </c>
-      <c r="AE6" t="s">
-        <v>73</v>
-      </c>
       <c r="AH6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI6" t="s">
         <v>77</v>
       </c>
-      <c r="AI6" t="s">
-        <v>78</v>
-      </c>
       <c r="AJ6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>81</v>
       </c>
       <c r="AL6">
         <v>120</v>
@@ -1279,16 +1331,16 @@
         <v>160</v>
       </c>
       <c r="AP6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>50</v>
       </c>
@@ -1302,43 +1354,43 @@
         <v>64</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7">
         <v>2891</v>
       </c>
       <c r="S7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA7" t="s">
         <v>67</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>68</v>
       </c>
-      <c r="AB7" t="s">
-        <v>69</v>
-      </c>
       <c r="AC7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD7" t="s">
         <v>71</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>72</v>
       </c>
-      <c r="AE7" t="s">
-        <v>73</v>
-      </c>
       <c r="AF7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s">
         <v>76</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>77</v>
       </c>
-      <c r="AI7" t="s">
-        <v>78</v>
-      </c>
       <c r="AJ7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s">
         <v>80</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>81</v>
       </c>
       <c r="AL7">
         <v>90</v>
@@ -1350,19 +1402,19 @@
         <v>140</v>
       </c>
       <c r="AP7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>82</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>83</v>
-      </c>
       <c r="AR7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS7" t="s">
         <v>85</v>
       </c>
-      <c r="AS7" t="s">
-        <v>86</v>
-      </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>51</v>
       </c>
@@ -1373,43 +1425,43 @@
         <v>17999</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="K8">
         <v>2427</v>
       </c>
       <c r="S8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA8" t="s">
         <v>67</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>68</v>
       </c>
-      <c r="AB8" t="s">
-        <v>69</v>
-      </c>
       <c r="AC8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD8" t="s">
         <v>71</v>
       </c>
-      <c r="AD8" t="s">
-        <v>72</v>
-      </c>
       <c r="AE8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI8" t="s">
         <v>77</v>
       </c>
-      <c r="AI8" t="s">
-        <v>78</v>
-      </c>
       <c r="AJ8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK8" t="s">
         <v>80</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>81</v>
       </c>
       <c r="AL8">
         <v>114</v>
@@ -1421,34 +1473,33 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR8" t="s">
         <v>84</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>85</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C33353-2DEB-434E-99B5-227F01A24FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="96">
   <si>
     <t>Address</t>
   </si>
@@ -157,6 +151,9 @@
     <t>Purpose</t>
   </si>
   <si>
+    <t>CanBeDisassembled</t>
+  </si>
+  <si>
     <t>Угловой стол компьютерный</t>
   </si>
   <si>
@@ -176,6 +173,12 @@
   </si>
   <si>
     <t>Стол угловой офисный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол угловой </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Офисный стол угловой с тумбой </t>
   </si>
   <si>
     <t xml:space="preserve">Угловой стол компьютерный
@@ -353,6 +356,52 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Стол угловой 
+Артикул 2437-38
+Столы на металлической основе.  
+Размер ДхШхВ: 160х90х75
+Правые 4шт, левые 4шт.
+В комплекте с тумбой
+Цена: 7000
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Офисный стол угловой с тумбой 
+Артикул 2435
+Описание производство "berlin" 
+Размеры ДхШхВ: 160х160х73
+Цвет:
+Цена: 15 000
+Количество 4 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/cFufIrcb9v9-dQ | https://disk.yandex.ru/i/FuBv5hPa_O3V1w | https://disk.yandex.ru/i/QiCfpTAvBHhRww | https://disk.yandex.ru/i/KKdURPW_gELV-w | https://disk.yandex.ru/i/KWrBrxdFXq5GVg</t>
   </si>
   <si>
@@ -371,6 +420,15 @@
     <t>https://disk.yandex.ru/i/uNmkA_2U25i67A | https://disk.yandex.ru/i/31YuLrCE8pppHg | https://disk.yandex.ru/i/KQxB5mVI_naDZA | https://disk.yandex.ru/i/hRgdRBJkBKIa_w | https://disk.yandex.ru/i/yTtUBWkxgn54lQ | https://disk.yandex.ru/i/wA6Nl5g3X11J6g | https://disk.yandex.ru/i/FnibuaFp5km8pg | https://disk.yandex.ru/i/ga69Ri5rvY37Zg</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/vCCF-iXpA_8frg | https://disk.yandex.ru/i/tdC-4PET_LDFiA | https://disk.yandex.ru/i/vDUMuytr1KRuhQ | https://disk.yandex.ru/i/93U19GjQ3Ka2Cg | https://disk.yandex.ru/i/QSIcbKee_WhELg | https://disk.yandex.ru/i/69abF5DeXfd8yw | https://disk.yandex.ru/i/XRqHYAUr0waX5g | https://disk.yandex.ru/i/8cxeRkqutS17yA | https://disk.yandex.ru/i/KDMqdHQDOjjM4Q | https://disk.yandex.ru/i/3HAOaXzInw-Bew</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/NJe1_YMfgKwHoA | https://disk.yandex.ru/i/Iy8JvU6sTl_SMw | https://disk.yandex.ru/i/gxpX14yOnIGAxA | https://disk.yandex.ru/i/JJLOVgEvDwNj6g | https://disk.yandex.ru/i/8GitQq06jWlzeg | https://disk.yandex.ru/i/q_s3i9BJia7ZFA | https://disk.yandex.ru/i/9Itg3S6qBVXG6A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/G3KMDd97Qbpsqw | https://disk.yandex.ru/i/Cwm3AlGmbYIRsg | https://disk.yandex.ru/i/zeWI0vGlLyNYAw | https://disk.yandex.ru/i/x-aSoAS7ftZXww | https://disk.yandex.ru/i/1g6IUlVJxJ1pLw | https://disk.yandex.ru/i/_WlKKBkBCEL49Q</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -401,6 +459,9 @@
     <t>Серый</t>
   </si>
   <si>
+    <t>Белый</t>
+  </si>
+  <si>
     <t xml:space="preserve">Венге </t>
   </si>
   <si>
@@ -434,14 +495,14 @@
     <t>Кабинет</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/vCCF-iXpA_8frg | https://disk.yandex.ru/i/tdC-4PET_LDFiA | https://disk.yandex.ru/i/vDUMuytr1KRuhQ | https://disk.yandex.ru/i/93U19GjQ3Ka2Cg | https://disk.yandex.ru/i/QSIcbKee_WhELg | https://disk.yandex.ru/i/69abF5DeXfd8yw | https://disk.yandex.ru/i/XRqHYAUr0waX5g | https://disk.yandex.ru/i/8cxeRkqutS17yA | https://disk.yandex.ru/i/KDMqdHQDOjjM4Q | https://disk.yandex.ru/i/3HAOaXzInw-Bew</t>
+    <t>b''</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,26 +573,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -569,9 +622,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,27 +656,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -655,27 +690,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -848,16 +865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,55 +1008,58 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>10000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K2">
         <v>2359</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AJ2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AK2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AL2">
         <v>118</v>
@@ -1053,66 +1071,69 @@
         <v>140</v>
       </c>
       <c r="AP2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AQ2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AR2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AS2" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>4999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K3">
         <v>2370</v>
       </c>
       <c r="S3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AJ3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AK3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AL3">
         <v>120</v>
@@ -1124,66 +1145,69 @@
         <v>140</v>
       </c>
       <c r="AP3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AQ3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AR3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AS3" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>2999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K4">
         <v>694</v>
       </c>
       <c r="S4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AJ4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AK4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1195,63 +1219,66 @@
         <v>140</v>
       </c>
       <c r="AP4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AQ4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46">
       <c r="D5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>2999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K5">
         <v>2038</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AJ5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AK5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1263,63 +1290,66 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AQ5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AS5" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46">
       <c r="D6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>4499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K6">
         <v>2111</v>
       </c>
       <c r="S6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AA6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AJ6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AK6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AL6">
         <v>120</v>
@@ -1331,66 +1361,69 @@
         <v>160</v>
       </c>
       <c r="AP6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AQ6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AS6" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46">
       <c r="D7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>15000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K7">
         <v>2891</v>
       </c>
       <c r="S7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AJ7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AK7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AL7">
         <v>90</v>
@@ -1402,66 +1435,69 @@
         <v>140</v>
       </c>
       <c r="AP7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AQ7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AR7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AS7" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46">
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>17999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K8">
         <v>2427</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AJ8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AK8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AL8">
         <v>114</v>
@@ -1473,33 +1509,189 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <v>7000</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9">
+        <v>2437</v>
+      </c>
+      <c r="S9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE9" t="s">
         <v>81</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AH9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL9">
+        <v>90</v>
+      </c>
+      <c r="AM9">
+        <v>75</v>
+      </c>
+      <c r="AN9">
+        <v>160</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>15000</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10">
+        <v>2435</v>
+      </c>
+      <c r="S10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE10" t="s">
         <v>83</v>
       </c>
-      <c r="AR8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS8" t="s">
+      <c r="AH10" t="s">
         <v>85</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL10">
+        <v>160</v>
+      </c>
+      <c r="AM10">
+        <v>73</v>
+      </c>
+      <c r="AN10">
+        <v>160</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F9FAEC-0EB9-477B-B941-C02FF2B3C4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="95">
   <si>
     <t>Address</t>
   </si>
@@ -494,15 +500,12 @@
   <si>
     <t>Кабинет</t>
   </si>
-  <si>
-    <t>b''</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,18 +576,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -622,9 +633,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -656,9 +667,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -690,9 +719,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -865,14 +912,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>46</v>
       </c>
@@ -1083,10 +1132,10 @@
         <v>94</v>
       </c>
       <c r="AT2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -1157,10 +1206,10 @@
         <v>94</v>
       </c>
       <c r="AT3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>48</v>
       </c>
@@ -1228,10 +1277,10 @@
         <v>94</v>
       </c>
       <c r="AT4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>49</v>
       </c>
@@ -1299,10 +1348,10 @@
         <v>94</v>
       </c>
       <c r="AT5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>50</v>
       </c>
@@ -1370,10 +1419,10 @@
         <v>94</v>
       </c>
       <c r="AT6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>51</v>
       </c>
@@ -1447,10 +1496,10 @@
         <v>94</v>
       </c>
       <c r="AT7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>52</v>
       </c>
@@ -1521,10 +1570,10 @@
         <v>94</v>
       </c>
       <c r="AT8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>53</v>
       </c>
@@ -1598,7 +1647,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>54</v>
       </c>
@@ -1674,24 +1723,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F9FAEC-0EB9-477B-B941-C02FF2B3C4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDB9FBF-EECA-458A-8646-70289FF5D014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="102">
   <si>
     <t>Address</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve">Офисный стол угловой с тумбой </t>
+  </si>
+  <si>
+    <t>Стол эргономичный</t>
   </si>
   <si>
     <t xml:space="preserve">Угловой стол компьютерный
@@ -408,6 +411,85 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Стол эргономичный
+Артикул 2440
+Офисные угловые столы от известной компании Берлин. Столы отличаются удобством за счёт эргономичности. В наличии 3 стола правым углом заворота и 1 с левым. Также есть одна приставная тумба для увеличения рабочей поверхности и 3 подкатные тумбы. 
+Размеры ДхШхВ: 140х79х75
+Наличии: 3 шт.
+Производство Берлин
+Цвет: молочный 
+Цена: 10000 за 1 комплект с подкатной тумбой.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол угловой 
+Артикул 2439
+Офисные угловые столы от известной компании Берлин. Столы отличаются удобством за счёт эргономичность. В наличии 3 стола правым углом заворота и 1 с левым. Также есть одна приставная тумба для увеличения рабочей поверхности и 3 подкатные тумбы. 
+Размеры ДхШхВ: 140х79х75
+Наличии: 1 шт.
+Производство Берлин
+Цвет: молочный 
+Цена: 12000 за комплект с приставной тумбой
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стол угловой с тумбой 
+Артикул 2452
+Описание
+Размеры ДхШхВ: 140х160х76
+Цвет сосна 
+Цена 7 999
+Количество уточняйте
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/cFufIrcb9v9-dQ | https://disk.yandex.ru/i/FuBv5hPa_O3V1w | https://disk.yandex.ru/i/QiCfpTAvBHhRww | https://disk.yandex.ru/i/KKdURPW_gELV-w | https://disk.yandex.ru/i/KWrBrxdFXq5GVg</t>
   </si>
   <si>
@@ -435,6 +517,12 @@
     <t>https://disk.yandex.ru/i/G3KMDd97Qbpsqw | https://disk.yandex.ru/i/Cwm3AlGmbYIRsg | https://disk.yandex.ru/i/zeWI0vGlLyNYAw | https://disk.yandex.ru/i/x-aSoAS7ftZXww | https://disk.yandex.ru/i/1g6IUlVJxJ1pLw | https://disk.yandex.ru/i/_WlKKBkBCEL49Q</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/DnBNQpCSgHjY7Q | https://disk.yandex.ru/i/Vn-2corxFLplJQ | https://disk.yandex.ru/i/8lthfP-dDlb3-g | https://disk.yandex.ru/i/1WYYx01G8m3PEA | https://disk.yandex.ru/i/aTK2HUK0WmuktA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/VZTFxdfZrrUDMQ | https://disk.yandex.ru/i/pQYbF38GoqO4gA | https://disk.yandex.ru/i/n3tHZE1giN2Dng | https://disk.yandex.ru/i/3g9bbG2Yo0W_yQ</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -499,6 +587,9 @@
   </si>
   <si>
     <t>Кабинет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/ETPguRFN6vNGfg | https://disk.yandex.ru/i/bbRqOa_CxMo-BA | https://disk.yandex.ru/i/4-ZU3hUDQHHFMA | https://disk.yandex.ru/i/CLay-99S4Qh_1g | https://disk.yandex.ru/i/WoNsgSYYLdp-mg | </t>
   </si>
 </sst>
 </file>
@@ -913,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT10"/>
+  <dimension ref="A1:AT13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,49 +1157,49 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>10000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K2">
         <v>2359</v>
       </c>
       <c r="S2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AD2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AE2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AI2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AJ2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AK2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AL2">
         <v>118</v>
@@ -1120,19 +1211,19 @@
         <v>140</v>
       </c>
       <c r="AP2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AQ2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AR2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AS2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AT2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
@@ -1140,49 +1231,49 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>4999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K3">
         <v>2370</v>
       </c>
       <c r="S3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AD3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AE3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AJ3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AK3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AL3">
         <v>120</v>
@@ -1194,19 +1285,19 @@
         <v>140</v>
       </c>
       <c r="AP3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AQ3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AR3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AS3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AT3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
@@ -1214,49 +1305,49 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>2999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K4">
         <v>694</v>
       </c>
       <c r="S4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AC4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AD4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AE4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AJ4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1268,16 +1359,16 @@
         <v>140</v>
       </c>
       <c r="AP4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AQ4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AS4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AT4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
@@ -1285,49 +1376,49 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>2999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K5">
         <v>2038</v>
       </c>
       <c r="S5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AC5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AD5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AE5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AJ5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AK5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1339,16 +1430,16 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AQ5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AS5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AT5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
@@ -1356,49 +1447,49 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>4499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K6">
         <v>2111</v>
       </c>
       <c r="S6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AC6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AD6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AE6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AJ6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AK6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AL6">
         <v>120</v>
@@ -1410,16 +1501,16 @@
         <v>160</v>
       </c>
       <c r="AP6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AQ6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AS6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AT6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
@@ -1427,52 +1518,52 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>15000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K7">
         <v>2891</v>
       </c>
       <c r="S7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AD7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AE7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AH7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AJ7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AK7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AL7">
         <v>90</v>
@@ -1484,19 +1575,19 @@
         <v>140</v>
       </c>
       <c r="AP7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AQ7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AR7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AS7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AT7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
@@ -1504,49 +1595,49 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>17999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K8">
         <v>2427</v>
       </c>
       <c r="S8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AD8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AE8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AH8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AI8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AJ8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AL8">
         <v>114</v>
@@ -1558,19 +1649,19 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AQ8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AR8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AS8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AT8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
@@ -1578,49 +1669,49 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>7000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K9">
         <v>2437</v>
       </c>
       <c r="S9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AD9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AE9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AH9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AI9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AJ9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AK9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AL9">
         <v>90</v>
@@ -1632,19 +1723,19 @@
         <v>160</v>
       </c>
       <c r="AP9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AQ9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AR9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AS9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AT9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
@@ -1652,49 +1743,49 @@
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10">
         <v>15000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K10">
         <v>2435</v>
       </c>
       <c r="S10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AD10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AE10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AH10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AI10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AJ10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AK10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AL10">
         <v>160</v>
@@ -1706,19 +1797,241 @@
         <v>160</v>
       </c>
       <c r="AP10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AQ10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11">
+        <v>2440</v>
+      </c>
+      <c r="S11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI11" t="s">
         <v>92</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AJ11" t="s">
         <v>93</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AK11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL11">
+        <v>79</v>
+      </c>
+      <c r="AM11">
+        <v>75</v>
+      </c>
+      <c r="AN11">
+        <v>140</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12">
+        <v>12000</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12">
+        <v>2439</v>
+      </c>
+      <c r="S12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL12">
+        <v>79</v>
+      </c>
+      <c r="AM12">
+        <v>75</v>
+      </c>
+      <c r="AN12">
+        <v>140</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13">
+        <v>7999</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13">
+        <v>2452</v>
+      </c>
+      <c r="S13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>94</v>
       </c>
-      <c r="AT10" t="s">
-        <v>89</v>
+      <c r="AK13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL13">
+        <v>160</v>
+      </c>
+      <c r="AM13">
+        <v>76</v>
+      </c>
+      <c r="AN13">
+        <v>140</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1741,6 +2054,12 @@
     <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" display="https://disk.yandex.ru/i/bbRqOa_CxMo-BA | https://disk.yandex.ru/i/4-ZU3hUDQHHFMA | https://disk.yandex.ru/i/CLay-99S4Qh_1g | https://disk.yandex.ru/i/WoNsgSYYLdp-mg | https://disk.yandex.ru/i/ETPguRFN6vNGfg" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDB9FBF-EECA-458A-8646-70289FF5D014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F2959-5CBC-4517-BA5C-C2FF7FC6BDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="101">
   <si>
     <t>Address</t>
   </si>
@@ -184,10 +184,10 @@
     <t xml:space="preserve">Стол угловой </t>
   </si>
   <si>
-    <t xml:space="preserve">Офисный стол угловой с тумбой </t>
-  </si>
-  <si>
     <t>Стол эргономичный</t>
+  </si>
+  <si>
+    <t>Стол офисный с тумбой</t>
   </si>
   <si>
     <t xml:space="preserve">Угловой стол компьютерный
@@ -388,29 +388,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Офисный стол угловой с тумбой 
-Артикул 2435
-Описание производство "berlin" 
-Размеры ДхШхВ: 160х160х73
-Цвет:
-Цена: 15 000
-Количество 4 шт
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол эргономичный
 Артикул 2440
 Офисные угловые столы от известной компании Берлин. Столы отличаются удобством за счёт эргономичности. В наличии 3 стола правым углом заворота и 1 с левым. Также есть одна приставная тумба для увеличения рабочей поверхности и 3 подкатные тумбы. 
@@ -490,6 +467,33 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Стол офисный с тумбой
+Артикул 2453-54
+Описание
+Размеры ДхШхВ: 160х120х76
+Цвет орех
+Цена 7999
+Количество 6 (уточняйте)
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/cFufIrcb9v9-dQ | https://disk.yandex.ru/i/FuBv5hPa_O3V1w | https://disk.yandex.ru/i/QiCfpTAvBHhRww | https://disk.yandex.ru/i/KKdURPW_gELV-w | https://disk.yandex.ru/i/KWrBrxdFXq5GVg</t>
   </si>
   <si>
@@ -514,15 +518,18 @@
     <t>https://disk.yandex.ru/i/NJe1_YMfgKwHoA | https://disk.yandex.ru/i/Iy8JvU6sTl_SMw | https://disk.yandex.ru/i/gxpX14yOnIGAxA | https://disk.yandex.ru/i/JJLOVgEvDwNj6g | https://disk.yandex.ru/i/8GitQq06jWlzeg | https://disk.yandex.ru/i/q_s3i9BJia7ZFA | https://disk.yandex.ru/i/9Itg3S6qBVXG6A</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/G3KMDd97Qbpsqw | https://disk.yandex.ru/i/Cwm3AlGmbYIRsg | https://disk.yandex.ru/i/zeWI0vGlLyNYAw | https://disk.yandex.ru/i/x-aSoAS7ftZXww | https://disk.yandex.ru/i/1g6IUlVJxJ1pLw | https://disk.yandex.ru/i/_WlKKBkBCEL49Q</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/DnBNQpCSgHjY7Q | https://disk.yandex.ru/i/Vn-2corxFLplJQ | https://disk.yandex.ru/i/8lthfP-dDlb3-g | https://disk.yandex.ru/i/1WYYx01G8m3PEA | https://disk.yandex.ru/i/aTK2HUK0WmuktA</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/VZTFxdfZrrUDMQ | https://disk.yandex.ru/i/pQYbF38GoqO4gA | https://disk.yandex.ru/i/n3tHZE1giN2Dng | https://disk.yandex.ru/i/3g9bbG2Yo0W_yQ</t>
   </si>
   <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/ETPguRFN6vNGfg | https://disk.yandex.ru/i/bbRqOa_CxMo-BA | https://disk.yandex.ru/i/4-ZU3hUDQHHFMA | https://disk.yandex.ru/i/CLay-99S4Qh_1g | https://disk.yandex.ru/i/WoNsgSYYLdp-mg | </t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/s7arz1A2ObR66Q | https://disk.yandex.ru/i/MExBWK6rR5X1yw | https://disk.yandex.ru/i/Wa8alImh8yFvbg | https://disk.yandex.ru/i/wScVS10q-X04Bw | https://disk.yandex.ru/i/PuTseMeE7dj46g | https://disk.yandex.ru/i/n3c32eu93IO7vA | https://disk.yandex.ru/i/Guc_8yL5ZxEUJA | https://disk.yandex.ru/i/H8uXqWibc0nL0Q | https://disk.yandex.ru/i/Kzv_Rs4Dkg9aGw</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -553,9 +560,6 @@
     <t>Серый</t>
   </si>
   <si>
-    <t>Белый</t>
-  </si>
-  <si>
     <t xml:space="preserve">Венге </t>
   </si>
   <si>
@@ -587,9 +591,6 @@
   </si>
   <si>
     <t>Кабинет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/ETPguRFN6vNGfg | https://disk.yandex.ru/i/bbRqOa_CxMo-BA | https://disk.yandex.ru/i/4-ZU3hUDQHHFMA | https://disk.yandex.ru/i/CLay-99S4Qh_1g | https://disk.yandex.ru/i/WoNsgSYYLdp-mg | </t>
   </si>
 </sst>
 </file>
@@ -1166,28 +1167,28 @@
         <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2">
         <v>2359</v>
       </c>
       <c r="S2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH2" t="s">
         <v>91</v>
@@ -1240,28 +1241,28 @@
         <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K3">
         <v>2370</v>
       </c>
       <c r="S3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s">
         <v>91</v>
@@ -1314,28 +1315,28 @@
         <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K4">
         <v>694</v>
       </c>
       <c r="S4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH4" t="s">
         <v>91</v>
@@ -1385,28 +1386,28 @@
         <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K5">
         <v>2038</v>
       </c>
       <c r="S5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH5" t="s">
         <v>91</v>
@@ -1456,28 +1457,28 @@
         <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K6">
         <v>2111</v>
       </c>
       <c r="S6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH6" t="s">
         <v>91</v>
@@ -1527,28 +1528,28 @@
         <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K7">
         <v>2891</v>
       </c>
       <c r="S7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF7" t="s">
         <v>90</v>
@@ -1604,28 +1605,28 @@
         <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K8">
         <v>2427</v>
       </c>
       <c r="S8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH8" t="s">
         <v>91</v>
@@ -1678,28 +1679,28 @@
         <v>75</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K9">
         <v>2437</v>
       </c>
       <c r="S9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH9" t="s">
         <v>91</v>
@@ -1746,34 +1747,34 @@
         <v>64</v>
       </c>
       <c r="F10">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10">
-        <v>2435</v>
+        <v>2440</v>
       </c>
       <c r="S10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH10" t="s">
         <v>91</v>
@@ -1782,19 +1783,19 @@
         <v>92</v>
       </c>
       <c r="AJ10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK10" t="s">
         <v>95</v>
       </c>
       <c r="AL10">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AM10">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN10">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AP10" t="s">
         <v>96</v>
@@ -1814,40 +1815,40 @@
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>65</v>
       </c>
       <c r="F11">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH11" t="s">
         <v>91</v>
@@ -1888,40 +1889,40 @@
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>66</v>
       </c>
       <c r="F12">
-        <v>12000</v>
+        <v>7999</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>78</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12">
-        <v>2439</v>
+        <v>2452</v>
       </c>
       <c r="S12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH12" t="s">
         <v>91</v>
@@ -1930,16 +1931,16 @@
         <v>92</v>
       </c>
       <c r="AJ12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK12" t="s">
         <v>95</v>
       </c>
       <c r="AL12">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="AM12">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN12">
         <v>140</v>
@@ -1948,7 +1949,7 @@
         <v>96</v>
       </c>
       <c r="AQ12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AR12" t="s">
         <v>99</v>
@@ -1962,7 +1963,7 @@
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
@@ -1971,28 +1972,28 @@
         <v>7999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="S13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE13" t="s">
         <v>87</v>
@@ -2010,13 +2011,13 @@
         <v>95</v>
       </c>
       <c r="AL13">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AM13">
         <v>76</v>
       </c>
       <c r="AN13">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP13" t="s">
         <v>96</v>
@@ -2058,7 +2059,7 @@
     <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" display="https://disk.yandex.ru/i/bbRqOa_CxMo-BA | https://disk.yandex.ru/i/4-ZU3hUDQHHFMA | https://disk.yandex.ru/i/CLay-99S4Qh_1g | https://disk.yandex.ru/i/WoNsgSYYLdp-mg | https://disk.yandex.ru/i/ETPguRFN6vNGfg" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F2959-5CBC-4517-BA5C-C2FF7FC6BDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -596,8 +590,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,26 +662,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -725,9 +711,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -759,27 +745,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -811,27 +779,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1004,16 +954,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1101,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="D2" t="s">
         <v>46</v>
       </c>
@@ -1227,7 +1175,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -1301,7 +1249,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="D4" t="s">
         <v>48</v>
       </c>
@@ -1372,7 +1320,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46">
       <c r="D5" t="s">
         <v>49</v>
       </c>
@@ -1443,7 +1391,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46">
       <c r="D6" t="s">
         <v>50</v>
       </c>
@@ -1514,7 +1462,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46">
       <c r="D7" t="s">
         <v>51</v>
       </c>
@@ -1591,7 +1539,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46">
       <c r="D8" t="s">
         <v>52</v>
       </c>
@@ -1665,7 +1613,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46">
       <c r="D9" t="s">
         <v>53</v>
       </c>
@@ -1739,7 +1687,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46">
       <c r="D10" t="s">
         <v>54</v>
       </c>
@@ -1813,7 +1761,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46">
       <c r="D11" t="s">
         <v>53</v>
       </c>
@@ -1887,7 +1835,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46">
       <c r="D12" t="s">
         <v>51</v>
       </c>
@@ -1961,7 +1909,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46">
       <c r="D13" t="s">
         <v>55</v>
       </c>
@@ -2037,30 +1985,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA347D-DCF8-462E-8D19-3E715E703E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="107">
   <si>
     <t>Address</t>
   </si>
@@ -182,6 +188,12 @@
   </si>
   <si>
     <t>Стол офисный с тумбой</t>
+  </si>
+  <si>
+    <t>Стол угловой с тумбой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол эргономичный с тумбой </t>
   </si>
   <si>
     <t xml:space="preserve">Угловой стол компьютерный
@@ -488,6 +500,53 @@
     </t>
   </si>
   <si>
+    <t>Стол угловой с тумбой
+Артикул 2464-65
+Офисные столы с тумбой отлично подойдут для работы, эргономичные и удобные. 
+К стола можем подобрать шкафы и прочую мебель. 
+Размеры ДхШхВ: 140х140х75
+Цвет бук
+Цена 6 999 
+Количество 13
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стол эргономичный с тумбой 
+Артикул 2458
+Описание
+Размеры ДхШхВ: 120х80х75
+Цвет сосна
+Цена 5 999
+Количество 2
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/cFufIrcb9v9-dQ | https://disk.yandex.ru/i/FuBv5hPa_O3V1w | https://disk.yandex.ru/i/QiCfpTAvBHhRww | https://disk.yandex.ru/i/KKdURPW_gELV-w | https://disk.yandex.ru/i/KWrBrxdFXq5GVg</t>
   </si>
   <si>
@@ -524,6 +583,12 @@
     <t>https://disk.yandex.ru/i/s7arz1A2ObR66Q | https://disk.yandex.ru/i/MExBWK6rR5X1yw | https://disk.yandex.ru/i/Wa8alImh8yFvbg | https://disk.yandex.ru/i/wScVS10q-X04Bw | https://disk.yandex.ru/i/PuTseMeE7dj46g | https://disk.yandex.ru/i/n3c32eu93IO7vA | https://disk.yandex.ru/i/Guc_8yL5ZxEUJA | https://disk.yandex.ru/i/H8uXqWibc0nL0Q | https://disk.yandex.ru/i/Kzv_Rs4Dkg9aGw</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/XNGdSTjpgRWV1A | https://disk.yandex.ru/i/y5EspJZZinX3Iw | https://disk.yandex.ru/i/tb7i2lJdxt2qqw | https://disk.yandex.ru/i/N2lqSxMJDsJjPg | https://disk.yandex.ru/i/JtDeAuXlXg0D5Q | https://disk.yandex.ru/i/bkBu9tDDR310pA | https://disk.yandex.ru/i/iTid5nfqdBZLxw | https://disk.yandex.ru/i/PlPEwxAm0choMg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/x2hzYmcI3Y-M9g | https://disk.yandex.ru/i/ghKFOSvIAWX_4w | https://disk.yandex.ru/i/QGkNDsbcehYPiw | https://disk.yandex.ru/i/VtSDgnMYGMndcg | https://disk.yandex.ru/i/k15GxBO6PChpIQ | https://disk.yandex.ru/i/xG6SBZ4CM3cw8g | https://disk.yandex.ru/i/apgCzAaQrKVYXA | https://disk.yandex.ru/i/lJT7nJLKQIv91A</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -554,6 +619,9 @@
     <t>Серый</t>
   </si>
   <si>
+    <t>Белый</t>
+  </si>
+  <si>
     <t xml:space="preserve">Венге </t>
   </si>
   <si>
@@ -561,9 +629,6 @@
   </si>
   <si>
     <t>Письменный</t>
-  </si>
-  <si>
-    <t>Прямоугольный</t>
   </si>
   <si>
     <t>Угловой</t>
@@ -590,8 +655,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,18 +727,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -711,9 +784,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -745,9 +818,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -779,9 +870,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -954,14 +1063,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,54 +1212,54 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>10000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K2">
         <v>2359</v>
       </c>
       <c r="S2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AA2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AC2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AE2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AH2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AI2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AJ2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AK2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AL2">
         <v>118</v>
@@ -1160,69 +1271,69 @@
         <v>140</v>
       </c>
       <c r="AP2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AQ2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AR2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AS2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AT2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>4999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K3">
         <v>2370</v>
       </c>
       <c r="S3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AA3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AC3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AE3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AH3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AI3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AJ3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AK3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AL3">
         <v>120</v>
@@ -1234,69 +1345,69 @@
         <v>140</v>
       </c>
       <c r="AP3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AQ3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AR3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AS3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AT3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>2999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K4">
         <v>694</v>
       </c>
       <c r="S4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AA4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AC4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AE4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AH4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AI4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AJ4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1308,66 +1419,66 @@
         <v>140</v>
       </c>
       <c r="AP4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AQ4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AS4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AT4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>2999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K5">
         <v>2038</v>
       </c>
       <c r="S5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AA5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AC5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AE5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AH5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AI5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1379,66 +1490,66 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AQ5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AS5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AT5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>4499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K6">
         <v>2111</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AA6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AC6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AE6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AH6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AI6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AL6">
         <v>120</v>
@@ -1450,69 +1561,69 @@
         <v>160</v>
       </c>
       <c r="AP6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AQ6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AS6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AT6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>15000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7">
         <v>2891</v>
       </c>
       <c r="S7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AA7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AC7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AE7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AH7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AI7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AJ7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AL7">
         <v>90</v>
@@ -1524,69 +1635,69 @@
         <v>140</v>
       </c>
       <c r="AP7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AQ7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AR7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AS7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AT7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>17999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K8">
         <v>2427</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AA8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AC8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AE8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AH8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AI8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AJ8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AL8">
         <v>114</v>
@@ -1598,69 +1709,69 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AQ8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AR8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AS8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AT8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F9">
         <v>7000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K9">
         <v>2437</v>
       </c>
       <c r="S9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AA9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AC9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AE9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AH9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AI9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AJ9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AL9">
         <v>90</v>
@@ -1672,69 +1783,69 @@
         <v>160</v>
       </c>
       <c r="AP9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AQ9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AR9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AS9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AT9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F10">
         <v>10000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K10">
         <v>2440</v>
       </c>
       <c r="S10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AA10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AC10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AE10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AH10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AI10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AJ10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AL10">
         <v>79</v>
@@ -1746,69 +1857,69 @@
         <v>140</v>
       </c>
       <c r="AP10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AQ10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AR10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AS10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AT10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F11">
         <v>12000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K11">
         <v>2439</v>
       </c>
       <c r="S11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AA11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AC11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AE11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AH11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AI11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AL11">
         <v>79</v>
@@ -1820,69 +1931,69 @@
         <v>140</v>
       </c>
       <c r="AP11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AQ11" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AR11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AS11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AT11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F12">
         <v>7999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K12">
         <v>2452</v>
       </c>
       <c r="S12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AA12" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB12" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AC12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AE12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AH12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AI12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AJ12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AL12">
         <v>160</v>
@@ -1894,69 +2005,69 @@
         <v>140</v>
       </c>
       <c r="AP12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AQ12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AR12" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AS12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AT12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13">
         <v>7999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K13">
         <v>2453</v>
       </c>
       <c r="S13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AA13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AC13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD13" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AE13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AH13" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AI13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AJ13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AL13">
         <v>120</v>
@@ -1968,47 +2079,199 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14">
+        <v>6999</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14">
+        <v>2464</v>
+      </c>
+      <c r="S14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL14">
+        <v>140</v>
+      </c>
+      <c r="AM14">
+        <v>75</v>
+      </c>
+      <c r="AN14">
+        <v>140</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15">
+        <v>5999</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15">
+        <v>2458</v>
+      </c>
+      <c r="S15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE15" t="s">
         <v>96</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR13" t="s">
+      <c r="AH15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI15" t="s">
         <v>99</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AJ15" t="s">
         <v>100</v>
       </c>
-      <c r="AT13" t="s">
-        <v>95</v>
+      <c r="AK15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL15">
+        <v>80</v>
+      </c>
+      <c r="AM15">
+        <v>75</v>
+      </c>
+      <c r="AN15">
+        <v>120</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA347D-DCF8-462E-8D19-3E715E703E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -266,7 +260,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -285,7 +278,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -306,7 +298,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -655,8 +646,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,26 +718,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -784,9 +767,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -818,27 +801,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -870,27 +835,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1063,16 +1010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="D2" t="s">
         <v>46</v>
       </c>
@@ -1286,7 +1231,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -1360,7 +1305,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="D4" t="s">
         <v>48</v>
       </c>
@@ -1431,7 +1376,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46">
       <c r="D5" t="s">
         <v>49</v>
       </c>
@@ -1502,7 +1447,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46">
       <c r="D6" t="s">
         <v>50</v>
       </c>
@@ -1573,7 +1518,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46">
       <c r="D7" t="s">
         <v>51</v>
       </c>
@@ -1650,7 +1595,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46">
       <c r="D8" t="s">
         <v>52</v>
       </c>
@@ -1724,7 +1669,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46">
       <c r="D9" t="s">
         <v>53</v>
       </c>
@@ -1798,7 +1743,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46">
       <c r="D10" t="s">
         <v>54</v>
       </c>
@@ -1872,7 +1817,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46">
       <c r="D11" t="s">
         <v>53</v>
       </c>
@@ -1946,7 +1891,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46">
       <c r="D12" t="s">
         <v>51</v>
       </c>
@@ -2020,7 +1965,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46">
       <c r="D13" t="s">
         <v>55</v>
       </c>
@@ -2094,7 +2039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46">
       <c r="D14" t="s">
         <v>56</v>
       </c>
@@ -2168,7 +2113,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46">
       <c r="D15" t="s">
         <v>57</v>
       </c>
@@ -2244,34 +2189,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -208,7 +208,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -238,7 +237,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -322,7 +320,6 @@
                  ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
                  ➕ При поиске нас в навигаторе наберите – 
                  Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
                  🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
                  -------------------------------------------------------------------
                  Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="97">
   <si>
     <t>Address</t>
   </si>
@@ -158,15 +158,6 @@
   </si>
   <si>
     <t>Компьютерный стол с тумбой</t>
-  </si>
-  <si>
-    <t>Стол офисный угловой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисный стол </t>
-  </si>
-  <si>
-    <t>Стол компьютерный угловой</t>
   </si>
   <si>
     <t xml:space="preserve">Стол угловой с тумбой </t>
@@ -244,64 +235,6 @@
     Работаем уже 6 лет, развиваясь и улучшая сервисный центр
     Можем укомплектовать 100-200 рабочих мест.
     </t>
-  </si>
-  <si>
-    <t>Артикул 694, 373, 1409
-Описание: 140/80(100), 140/90, 140/120
-Цена: 3000, 3500, 4000
-Цвет: орех 
-Наличие: 2, 4, 4
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стол эргономичный 
-Артикул 2038
-Описание: офисные столы бу классического цвета темный орех. Стол с небольшим вырезом создает большую комфортную рабочую зону, в отличии от прямых столов. Столы бу имеют небольшие дефекты. 
-Размер 149х80-2999(с дефектами), 3499 (в хорошем состоянии)
-120х80 - 3000
-Количество: левосторонние- 13, правосторонние- 865edited 13:16
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стол угловой
-Артикул 2111, 2112
-Описание: Офисные угловые столы бу. Столы очень удобные имеют большую рабочую зону и хорошую обтекаемую форму, которая позволяет принять удобное для тела положение при работе. 
-К столам можем подобрать приставные тумбы вровень стола, шкаф для документов и гардеробы подходящего вам размера 
-Размер 160х120
-Цвет орех 
-Цена 4500 
-Количество левосторонние-12 шт, правосторонние-13 шт
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t xml:space="preserve">Стол угловой с тумбой 
@@ -541,15 +474,6 @@
     <t>https://disk.yandex.ru/i/Ara9b_4wd8sDtw | https://disk.yandex.ru/i/gqgZmxZYt1fsgQ | https://disk.yandex.ru/i/0Dl22w6bBYc8xA | https://disk.yandex.ru/i/HRnd-b3cWTnOkw | https://disk.yandex.ru/i/nUyViw3R7aY2ew | https://disk.yandex.ru/i/TXcKs1Dof2cP8A | https://disk.yandex.ru/i/dInfX-hvLmREBQ</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/YFHBkVHR8OaOIg | https://disk.yandex.ru/i/U1DTSb-aXN5TJg | https://disk.yandex.ru/i/Kvqjnr5gsAj_aA | https://disk.yandex.ru/i/TMATmVG2jtixKA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/Dp8VchaJ7Unvig | https://disk.yandex.ru/i/hY3ALU-BQlNCjg | https://disk.yandex.ru/i/zcFZ8i-3peFbkQ | https://disk.yandex.ru/i/pMVCQRlolpTyeQ | https://disk.yandex.ru/i/DOkh1MOTbFXfRQ | https://disk.yandex.ru/i/fULiZoSMfNG2mQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/fbi6t0DrL5Ye6A | https://disk.yandex.ru/i/B0H4munIi3QmJw | https://disk.yandex.ru/i/C8iHkJRP_sTEqQ | https://disk.yandex.ru/i/2O2fz6OoUUqajQ | https://disk.yandex.ru/i/8UL_l2ZCuDBLNg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/uNmkA_2U25i67A | https://disk.yandex.ru/i/31YuLrCE8pppHg | https://disk.yandex.ru/i/KQxB5mVI_naDZA | https://disk.yandex.ru/i/hRgdRBJkBKIa_w | https://disk.yandex.ru/i/yTtUBWkxgn54lQ | https://disk.yandex.ru/i/wA6Nl5g3X11J6g | https://disk.yandex.ru/i/FnibuaFp5km8pg | https://disk.yandex.ru/i/ga69Ri5rvY37Zg</t>
   </si>
   <si>
@@ -587,9 +511,6 @@
   </si>
   <si>
     <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
   </si>
   <si>
     <t>Б/у</t>
@@ -1008,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT15"/>
+  <dimension ref="A1:AT12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,49 +1080,49 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>10000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K2">
         <v>2359</v>
       </c>
       <c r="S2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH2" t="s">
         <v>88</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AI2" t="s">
         <v>89</v>
       </c>
-      <c r="AC2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>99</v>
-      </c>
       <c r="AJ2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AL2">
         <v>118</v>
@@ -1213,19 +1134,19 @@
         <v>140</v>
       </c>
       <c r="AP2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AQ2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AR2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AS2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AT2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1233,49 +1154,49 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>4999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K3">
         <v>2370</v>
       </c>
       <c r="S3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH3" t="s">
         <v>88</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AI3" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>99</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AL3">
         <v>120</v>
@@ -1287,19 +1208,19 @@
         <v>140</v>
       </c>
       <c r="AP3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AQ3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AR3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AS3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AT3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1307,52 +1228,55 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F4">
-        <v>2999</v>
+        <v>15000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K4">
-        <v>694</v>
+        <v>2891</v>
       </c>
       <c r="S4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF4" t="s">
         <v>87</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AH4" t="s">
         <v>88</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AI4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>90</v>
       </c>
-      <c r="AC4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>100</v>
-      </c>
       <c r="AK4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AL4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM4">
         <v>75</v>
@@ -1361,16 +1285,19 @@
         <v>140</v>
       </c>
       <c r="AP4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AQ4" t="s">
-        <v>102</v>
+        <v>93</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>95</v>
       </c>
       <c r="AS4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AT4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1378,70 +1305,73 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5">
-        <v>2999</v>
+        <v>17999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K5">
-        <v>2038</v>
+        <v>2427</v>
       </c>
       <c r="S5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH5" t="s">
         <v>88</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AI5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>90</v>
       </c>
-      <c r="AC5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AK5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL5">
+        <v>114</v>
+      </c>
+      <c r="AM5">
+        <v>74</v>
+      </c>
+      <c r="AN5">
+        <v>160</v>
+      </c>
+      <c r="AP5" t="s">
         <v>92</v>
       </c>
-      <c r="AE5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL5">
-        <v>80</v>
-      </c>
-      <c r="AM5">
-        <v>75</v>
-      </c>
-      <c r="AN5">
-        <v>120</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>102</v>
-      </c>
       <c r="AQ5" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>95</v>
       </c>
       <c r="AS5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AT5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1449,52 +1379,52 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6">
-        <v>4499</v>
+        <v>7000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K6">
-        <v>2111</v>
+        <v>2437</v>
       </c>
       <c r="S6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH6" t="s">
         <v>88</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AI6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>90</v>
       </c>
-      <c r="AC6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>100</v>
-      </c>
       <c r="AK6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AL6">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AM6">
         <v>75</v>
@@ -1503,16 +1433,19 @@
         <v>160</v>
       </c>
       <c r="AP6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AQ6" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>95</v>
       </c>
       <c r="AS6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AT6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1520,55 +1453,52 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F7">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="K7">
-        <v>2891</v>
+        <v>2440</v>
       </c>
       <c r="S7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH7" t="s">
         <v>88</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AI7" t="s">
         <v>89</v>
       </c>
-      <c r="AC7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>99</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AL7">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AM7">
         <v>75</v>
@@ -1577,241 +1507,241 @@
         <v>140</v>
       </c>
       <c r="AP7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AQ7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AR7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AS7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AT7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:46">
       <c r="D8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8">
-        <v>17999</v>
+        <v>12000</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8">
+        <v>2439</v>
+      </c>
+      <c r="S8" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8">
-        <v>2427</v>
-      </c>
-      <c r="S8" t="s">
-        <v>87</v>
-      </c>
       <c r="AA8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH8" t="s">
         <v>88</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AI8" t="s">
         <v>89</v>
       </c>
-      <c r="AC8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AJ8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL8">
+        <v>79</v>
+      </c>
+      <c r="AM8">
+        <v>75</v>
+      </c>
+      <c r="AN8">
+        <v>140</v>
+      </c>
+      <c r="AP8" t="s">
         <v>92</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AQ8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR8" t="s">
         <v>95</v>
       </c>
-      <c r="AH8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL8">
-        <v>114</v>
-      </c>
-      <c r="AM8">
-        <v>74</v>
-      </c>
-      <c r="AN8">
-        <v>160</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>105</v>
-      </c>
       <c r="AS8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AT8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:46">
       <c r="D9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F9">
-        <v>7000</v>
+        <v>7999</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9">
+        <v>2452</v>
+      </c>
+      <c r="S9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA9" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9">
-        <v>2437</v>
-      </c>
-      <c r="S9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH9" t="s">
         <v>88</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AI9" t="s">
         <v>89</v>
       </c>
-      <c r="AC9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="AJ9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL9">
+        <v>160</v>
+      </c>
+      <c r="AM9">
+        <v>76</v>
+      </c>
+      <c r="AN9">
+        <v>140</v>
+      </c>
+      <c r="AP9" t="s">
         <v>92</v>
       </c>
-      <c r="AE9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL9">
-        <v>90</v>
-      </c>
-      <c r="AM9">
-        <v>75</v>
-      </c>
-      <c r="AN9">
-        <v>160</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>102</v>
-      </c>
       <c r="AQ9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AR9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AS9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AT9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:46">
       <c r="D10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F10">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10">
+        <v>2453</v>
+      </c>
+      <c r="S10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB10" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10">
-        <v>2440</v>
-      </c>
-      <c r="S10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH10" t="s">
         <v>88</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AI10" t="s">
         <v>89</v>
       </c>
-      <c r="AC10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AJ10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL10">
+        <v>120</v>
+      </c>
+      <c r="AM10">
+        <v>76</v>
+      </c>
+      <c r="AN10">
+        <v>160</v>
+      </c>
+      <c r="AP10" t="s">
         <v>92</v>
       </c>
-      <c r="AE10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL10">
-        <v>79</v>
-      </c>
-      <c r="AM10">
-        <v>75</v>
-      </c>
-      <c r="AN10">
-        <v>140</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>102</v>
-      </c>
       <c r="AQ10" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AR10" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AS10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AT10" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1819,52 +1749,52 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F11">
-        <v>12000</v>
+        <v>6999</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11">
+        <v>2464</v>
+      </c>
+      <c r="S11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11">
-        <v>2439</v>
-      </c>
-      <c r="S11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH11" t="s">
         <v>88</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AI11" t="s">
         <v>89</v>
       </c>
-      <c r="AC11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>99</v>
-      </c>
       <c r="AJ11" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AL11">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AM11">
         <v>75</v>
@@ -1873,315 +1803,93 @@
         <v>140</v>
       </c>
       <c r="AP11" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AQ11" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AR11" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AS11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AT11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:46">
       <c r="D12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F12">
-        <v>7999</v>
+        <v>5999</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12">
+        <v>2458</v>
+      </c>
+      <c r="S12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD12" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="AE12" t="s">
         <v>86</v>
       </c>
-      <c r="K12">
-        <v>2452</v>
-      </c>
-      <c r="S12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="AH12" t="s">
         <v>88</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AI12" t="s">
         <v>89</v>
       </c>
-      <c r="AC12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD12" t="s">
+      <c r="AJ12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL12">
+        <v>80</v>
+      </c>
+      <c r="AM12">
+        <v>75</v>
+      </c>
+      <c r="AN12">
+        <v>120</v>
+      </c>
+      <c r="AP12" t="s">
         <v>92</v>
       </c>
-      <c r="AE12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL12">
-        <v>160</v>
-      </c>
-      <c r="AM12">
-        <v>76</v>
-      </c>
-      <c r="AN12">
-        <v>140</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>102</v>
-      </c>
       <c r="AQ12" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AR12" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AS12" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AT12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46">
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13">
-        <v>7999</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13">
-        <v>2453</v>
-      </c>
-      <c r="S13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL13">
-        <v>120</v>
-      </c>
-      <c r="AM13">
-        <v>76</v>
-      </c>
-      <c r="AN13">
-        <v>160</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46">
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14">
-        <v>6999</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14">
-        <v>2464</v>
-      </c>
-      <c r="S14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL14">
-        <v>140</v>
-      </c>
-      <c r="AM14">
-        <v>75</v>
-      </c>
-      <c r="AN14">
-        <v>140</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46">
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15">
-        <v>5999</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15">
-        <v>2458</v>
-      </c>
-      <c r="S15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL15">
-        <v>80</v>
-      </c>
-      <c r="AM15">
-        <v>75</v>
-      </c>
-      <c r="AN15">
-        <v>120</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2208,12 +1916,6 @@
     <hyperlink ref="I11" r:id="rId20"/>
     <hyperlink ref="G12" r:id="rId21"/>
     <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="95">
   <si>
     <t>Address</t>
   </si>
@@ -343,34 +343,6 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">Стол угловой 
-Артикул 2439
-Офисные угловые столы от известной компании Берлин. Столы отличаются удобством за счёт эргономичность. В наличии 3 стола правым углом заворота и 1 с левым. Также есть одна приставная тумба для увеличения рабочей поверхности и 3 подкатные тумбы. 
-Размеры ДхШхВ: 140х79х75
-Наличии: 1 шт.
-Производство Берлин
-Цвет: молочный 
-Цена: 12000 за комплект с приставной тумбой
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Стол угловой с тумбой 
 Артикул 2452
 Описание
@@ -484,9 +456,6 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/DnBNQpCSgHjY7Q | https://disk.yandex.ru/i/Vn-2corxFLplJQ | https://disk.yandex.ru/i/8lthfP-dDlb3-g | https://disk.yandex.ru/i/1WYYx01G8m3PEA | https://disk.yandex.ru/i/aTK2HUK0WmuktA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/VZTFxdfZrrUDMQ | https://disk.yandex.ru/i/pQYbF38GoqO4gA | https://disk.yandex.ru/i/n3tHZE1giN2Dng | https://disk.yandex.ru/i/3g9bbG2Yo0W_yQ</t>
   </si>
   <si>
     <t xml:space="preserve">https://disk.yandex.ru/i/ETPguRFN6vNGfg | https://disk.yandex.ru/i/bbRqOa_CxMo-BA | https://disk.yandex.ru/i/4-ZU3hUDQHHFMA | https://disk.yandex.ru/i/CLay-99S4Qh_1g | https://disk.yandex.ru/i/WoNsgSYYLdp-mg | </t>
@@ -929,7 +898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT12"/>
+  <dimension ref="A1:AT11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1086,43 +1055,43 @@
         <v>10000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K2">
         <v>2359</v>
       </c>
       <c r="S2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB2" t="s">
         <v>78</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>79</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>80</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>81</v>
       </c>
-      <c r="AD2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>83</v>
-      </c>
       <c r="AH2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>88</v>
       </c>
-      <c r="AI2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>90</v>
-      </c>
       <c r="AK2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AL2">
         <v>118</v>
@@ -1134,19 +1103,19 @@
         <v>140</v>
       </c>
       <c r="AP2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AQ2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AR2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AS2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AT2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1160,43 +1129,43 @@
         <v>4999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K3">
         <v>2370</v>
       </c>
       <c r="S3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB3" t="s">
         <v>78</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>79</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>82</v>
       </c>
-      <c r="AE3" t="s">
-        <v>84</v>
-      </c>
       <c r="AH3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>88</v>
       </c>
-      <c r="AI3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>90</v>
-      </c>
       <c r="AK3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AL3">
         <v>120</v>
@@ -1208,19 +1177,19 @@
         <v>140</v>
       </c>
       <c r="AP3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AQ3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AR3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AS3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AT3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1234,46 +1203,46 @@
         <v>15000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K4">
         <v>2891</v>
       </c>
       <c r="S4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4" t="s">
         <v>78</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>79</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>80</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>81</v>
       </c>
-      <c r="AD4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>83</v>
-      </c>
       <c r="AF4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI4" t="s">
         <v>87</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AJ4" t="s">
         <v>88</v>
       </c>
-      <c r="AI4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>90</v>
-      </c>
       <c r="AK4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AL4">
         <v>90</v>
@@ -1285,19 +1254,19 @@
         <v>140</v>
       </c>
       <c r="AP4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AQ4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR4" t="s">
         <v>93</v>
       </c>
-      <c r="AR4" t="s">
-        <v>95</v>
-      </c>
       <c r="AS4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AT4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1311,43 +1280,43 @@
         <v>17999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K5">
         <v>2427</v>
       </c>
       <c r="S5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB5" t="s">
         <v>78</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>79</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>80</v>
       </c>
-      <c r="AC5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>82</v>
-      </c>
       <c r="AE5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>88</v>
       </c>
-      <c r="AI5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>90</v>
-      </c>
       <c r="AK5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AL5">
         <v>114</v>
@@ -1359,19 +1328,19 @@
         <v>160</v>
       </c>
       <c r="AP5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>92</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS5" t="s">
         <v>94</v>
       </c>
-      <c r="AR5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>96</v>
-      </c>
       <c r="AT5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1385,43 +1354,43 @@
         <v>7000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K6">
         <v>2437</v>
       </c>
       <c r="S6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s">
         <v>78</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>79</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>80</v>
       </c>
-      <c r="AC6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>82</v>
       </c>
-      <c r="AE6" t="s">
-        <v>84</v>
-      </c>
       <c r="AH6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>88</v>
       </c>
-      <c r="AI6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>90</v>
-      </c>
       <c r="AK6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AL6">
         <v>90</v>
@@ -1433,19 +1402,19 @@
         <v>160</v>
       </c>
       <c r="AP6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>92</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS6" t="s">
         <v>94</v>
       </c>
-      <c r="AR6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>96</v>
-      </c>
       <c r="AT6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1459,43 +1428,43 @@
         <v>10000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K7">
         <v>2440</v>
       </c>
       <c r="S7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB7" t="s">
         <v>78</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>79</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>80</v>
       </c>
-      <c r="AC7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>82</v>
       </c>
-      <c r="AE7" t="s">
-        <v>84</v>
-      </c>
       <c r="AH7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>88</v>
       </c>
-      <c r="AI7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>90</v>
-      </c>
       <c r="AK7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AL7">
         <v>79</v>
@@ -1507,98 +1476,98 @@
         <v>140</v>
       </c>
       <c r="AP7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>92</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AR7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS7" t="s">
         <v>94</v>
       </c>
-      <c r="AR7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>96</v>
-      </c>
       <c r="AT7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:46">
       <c r="D8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
         <v>61</v>
       </c>
       <c r="F8">
-        <v>12000</v>
+        <v>7999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8">
+        <v>2452</v>
+      </c>
+      <c r="S8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA8" t="s">
         <v>77</v>
       </c>
-      <c r="K8">
-        <v>2439</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="AB8" t="s">
         <v>78</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>79</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>80</v>
       </c>
-      <c r="AC8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>82</v>
       </c>
-      <c r="AE8" t="s">
-        <v>84</v>
-      </c>
       <c r="AH8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>88</v>
       </c>
-      <c r="AI8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>90</v>
-      </c>
       <c r="AK8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AL8">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="AM8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN8">
         <v>140</v>
       </c>
       <c r="AP8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AQ8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS8" t="s">
         <v>94</v>
       </c>
-      <c r="AR8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>96</v>
-      </c>
       <c r="AT8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:46">
       <c r="D9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>62</v>
@@ -1607,289 +1576,215 @@
         <v>7999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9">
+        <v>2453</v>
+      </c>
+      <c r="S9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA9" t="s">
         <v>77</v>
       </c>
-      <c r="K9">
-        <v>2452</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="AB9" t="s">
         <v>78</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
         <v>80</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>84</v>
-      </c>
       <c r="AH9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>88</v>
       </c>
-      <c r="AI9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>90</v>
-      </c>
       <c r="AK9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AL9">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AM9">
         <v>76</v>
       </c>
       <c r="AN9">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AQ9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AR9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AS9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AT9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:46">
       <c r="D10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
       </c>
       <c r="F10">
-        <v>7999</v>
+        <v>6999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10">
+        <v>2464</v>
+      </c>
+      <c r="S10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA10" t="s">
         <v>77</v>
       </c>
-      <c r="K10">
-        <v>2453</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="AB10" t="s">
         <v>78</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
         <v>79</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AD10" t="s">
         <v>80</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AE10" t="s">
         <v>81</v>
       </c>
-      <c r="AD10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>83</v>
-      </c>
       <c r="AH10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>88</v>
       </c>
-      <c r="AI10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL10">
+        <v>140</v>
+      </c>
+      <c r="AM10">
+        <v>75</v>
+      </c>
+      <c r="AN10">
+        <v>140</v>
+      </c>
+      <c r="AP10" t="s">
         <v>90</v>
       </c>
-      <c r="AK10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL10">
-        <v>120</v>
-      </c>
-      <c r="AM10">
-        <v>76</v>
-      </c>
-      <c r="AN10">
-        <v>160</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>92</v>
-      </c>
       <c r="AQ10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AR10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AS10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AT10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:46">
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>64</v>
       </c>
       <c r="F11">
-        <v>6999</v>
+        <v>5999</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="K11">
+        <v>2458</v>
+      </c>
+      <c r="S11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA11" t="s">
         <v>77</v>
       </c>
-      <c r="K11">
-        <v>2464</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="AB11" t="s">
         <v>78</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
         <v>79</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AD11" t="s">
         <v>80</v>
       </c>
-      <c r="AC11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>82</v>
-      </c>
       <c r="AE11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>88</v>
       </c>
-      <c r="AI11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>90</v>
-      </c>
       <c r="AK11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AL11">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AM11">
         <v>75</v>
       </c>
       <c r="AN11">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AP11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AQ11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AR11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AS11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AT11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46">
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12">
-        <v>5999</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12">
-        <v>2458</v>
-      </c>
-      <c r="S12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL12">
-        <v>80</v>
-      </c>
-      <c r="AM12">
-        <v>75</v>
-      </c>
-      <c r="AN12">
-        <v>120</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1914,8 +1809,6 @@
     <hyperlink ref="I10" r:id="rId18"/>
     <hyperlink ref="G11" r:id="rId19"/>
     <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6061AB-DE46-437A-B198-B1CA53F63E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="91">
   <si>
     <t>Address</t>
   </si>
@@ -154,9 +160,6 @@
     <t>CanBeDisassembled</t>
   </si>
   <si>
-    <t>Угловой стол компьютерный</t>
-  </si>
-  <si>
     <t>Компьютерный стол с тумбой</t>
   </si>
   <si>
@@ -176,36 +179,6 @@
   </si>
   <si>
     <t>Стол угловой с тумбой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол эргономичный с тумбой </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Угловой стол компьютерный
-Артикул 2359-60
-Элегантный угловой офисный стол цвета венге — стильное и функциональное решение для современного рабочего пространства. Большая рабочая поверхность создает комфортные условия для работы, а угловая конструкция помогает оптимально использовать пространство кабинета. Встроенная тумба с несколькими вместительными ящиками идеально подходит для хранения документов, канцелярии и других рабочих принадлежностей. Стол цвета венге добавит офису солидности и стиля, а его прочные материалы и устойчивое основание обеспечат долгий срок службы.
-Размеры ДхШхВ: 140х118х76
-Цвет венге
-Цена 10 000 руб
-Количество
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
   </si>
   <si>
     <t xml:space="preserve">Компьютерный стол с тумбой
@@ -417,13 +390,14 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Стол эргономичный с тумбой 
-Артикул 2458
-Описание
-Размеры ДхШхВ: 120х80х75
-Цвет сосна
-Цена 5 999
-Количество 2
+    <t>Стол офисный с тумбой
+Артикул 2476-77
+Угловой компьютерный стол с приставной тумбой бу. 
+Размеры ДхШхВ: Стол - 150х120х74
+Тумба - 70х44х74
+Цвет ольха
+Цена 6 999 
+Количество 11 шт. правые - 6, левые - 5
     У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
     В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
     Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
@@ -440,9 +414,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/cFufIrcb9v9-dQ | https://disk.yandex.ru/i/FuBv5hPa_O3V1w | https://disk.yandex.ru/i/QiCfpTAvBHhRww | https://disk.yandex.ru/i/KKdURPW_gELV-w | https://disk.yandex.ru/i/KWrBrxdFXq5GVg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/Ara9b_4wd8sDtw | https://disk.yandex.ru/i/gqgZmxZYt1fsgQ | https://disk.yandex.ru/i/0Dl22w6bBYc8xA | https://disk.yandex.ru/i/HRnd-b3cWTnOkw | https://disk.yandex.ru/i/nUyViw3R7aY2ew | https://disk.yandex.ru/i/TXcKs1Dof2cP8A | https://disk.yandex.ru/i/dInfX-hvLmREBQ</t>
   </si>
   <si>
@@ -467,9 +438,6 @@
     <t>https://disk.yandex.ru/i/XNGdSTjpgRWV1A | https://disk.yandex.ru/i/y5EspJZZinX3Iw | https://disk.yandex.ru/i/tb7i2lJdxt2qqw | https://disk.yandex.ru/i/N2lqSxMJDsJjPg | https://disk.yandex.ru/i/JtDeAuXlXg0D5Q | https://disk.yandex.ru/i/bkBu9tDDR310pA | https://disk.yandex.ru/i/iTid5nfqdBZLxw | https://disk.yandex.ru/i/PlPEwxAm0choMg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/x2hzYmcI3Y-M9g | https://disk.yandex.ru/i/ghKFOSvIAWX_4w | https://disk.yandex.ru/i/QGkNDsbcehYPiw | https://disk.yandex.ru/i/VtSDgnMYGMndcg | https://disk.yandex.ru/i/k15GxBO6PChpIQ | https://disk.yandex.ru/i/xG6SBZ4CM3cw8g | https://disk.yandex.ru/i/apgCzAaQrKVYXA | https://disk.yandex.ru/i/lJT7nJLKQIv91A</t>
-  </si>
-  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -488,16 +456,16 @@
     <t>В наличии</t>
   </si>
   <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
     <t>Коричневый</t>
   </si>
   <si>
-    <t>Бежевый</t>
-  </si>
-  <si>
     <t>Серый</t>
   </si>
   <si>
-    <t>Белый</t>
+    <t>Жёлтый</t>
   </si>
   <si>
     <t xml:space="preserve">Венге </t>
@@ -528,13 +496,16 @@
   </si>
   <si>
     <t>Кабинет</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/cs5pm-uw3xLpRQ | https://disk.yandex.ru/i/rn2_z9g3_ae81w | https://disk.yandex.ru/i/SaprY7-Arx2BqQ | https://disk.yandex.ru/i/ljFvTOQYcVyNIg | https://disk.yandex.ru/i/dDpbYxTpQbtScw | https://disk.yandex.ru/i/4zs48pb-5-cfMg | https://disk.yandex.ru/i/T6aQaR1mq9Osog | https://disk.yandex.ru/i/nBvXKe3S4CsuPw | https://disk.yandex.ru/i/QHMY5Quvm1q5yA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,18 +576,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -654,9 +633,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,9 +667,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,9 +719,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -897,14 +912,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,131 +1061,134 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2">
-        <v>10000</v>
+        <v>4999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2">
+        <v>2370</v>
+      </c>
+      <c r="S2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s">
         <v>75</v>
       </c>
-      <c r="K2">
-        <v>2359</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="AE2" t="s">
         <v>76</v>
       </c>
-      <c r="AA2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>81</v>
       </c>
-      <c r="AH2" t="s">
-        <v>86</v>
-      </c>
       <c r="AI2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AL2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AM2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN2">
         <v>140</v>
       </c>
       <c r="AP2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AQ2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AR2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AS2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AT2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>4999</v>
+        <v>15000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3">
+        <v>2891</v>
+      </c>
+      <c r="S3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD3" t="s">
         <v>75</v>
       </c>
-      <c r="K3">
-        <v>2370</v>
-      </c>
-      <c r="S3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AE3" t="s">
         <v>77</v>
       </c>
-      <c r="AB3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AF3" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI3" t="s">
         <v>82</v>
       </c>
-      <c r="AH3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>87</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AK3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AL3">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AM3">
         <v>75</v>
@@ -1177,638 +1197,558 @@
         <v>140</v>
       </c>
       <c r="AP3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AQ3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AR3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AS3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AT3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4">
-        <v>15000</v>
+        <v>17999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4">
+        <v>2427</v>
+      </c>
+      <c r="S4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s">
         <v>75</v>
       </c>
-      <c r="K4">
-        <v>2891</v>
-      </c>
-      <c r="S4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AE4" t="s">
         <v>78</v>
       </c>
-      <c r="AC4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
         <v>81</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AI4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL4">
+        <v>114</v>
+      </c>
+      <c r="AM4">
+        <v>74</v>
+      </c>
+      <c r="AN4">
+        <v>160</v>
+      </c>
+      <c r="AP4" t="s">
         <v>85</v>
       </c>
-      <c r="AH4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AQ4" t="s">
         <v>87</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AR4" t="s">
         <v>88</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AS4" t="s">
         <v>89</v>
       </c>
-      <c r="AL4">
-        <v>90</v>
-      </c>
-      <c r="AM4">
-        <v>75</v>
-      </c>
-      <c r="AN4">
-        <v>140</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>94</v>
-      </c>
       <c r="AT4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5">
-        <v>17999</v>
+        <v>7000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5">
+        <v>2437</v>
+      </c>
+      <c r="S5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD5" t="s">
         <v>75</v>
       </c>
-      <c r="K5">
-        <v>2427</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="AE5" t="s">
         <v>76</v>
       </c>
-      <c r="AA5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>83</v>
       </c>
-      <c r="AH5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>88</v>
-      </c>
       <c r="AK5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AL5">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="AM5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN5">
         <v>160</v>
       </c>
       <c r="AP5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AQ5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AR5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AS5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AT5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6">
+        <v>2440</v>
+      </c>
+      <c r="S6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s">
         <v>75</v>
       </c>
-      <c r="K6">
-        <v>2437</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="AE6" t="s">
         <v>76</v>
       </c>
-      <c r="AA6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AH6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL6">
         <v>79</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL6">
-        <v>90</v>
       </c>
       <c r="AM6">
         <v>75</v>
       </c>
       <c r="AN6">
+        <v>140</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7">
+        <v>7999</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7">
+        <v>2452</v>
+      </c>
+      <c r="S7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL7">
         <v>160</v>
       </c>
-      <c r="AP6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46">
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7">
-        <v>10000</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7">
-        <v>2440</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="AM7">
         <v>76</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL7">
-        <v>79</v>
-      </c>
-      <c r="AM7">
-        <v>75</v>
       </c>
       <c r="AN7">
         <v>140</v>
       </c>
       <c r="AP7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AQ7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AR7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AS7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AT7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8">
         <v>7999</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8">
+        <v>2453</v>
+      </c>
+      <c r="S8" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="AA8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD8" t="s">
         <v>75</v>
       </c>
-      <c r="K8">
-        <v>2452</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AE8" t="s">
         <v>77</v>
       </c>
-      <c r="AB8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE8" t="s">
+      <c r="AH8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI8" t="s">
         <v>82</v>
       </c>
-      <c r="AH8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>87</v>
-      </c>
       <c r="AJ8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AK8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AL8">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AM8">
         <v>76</v>
       </c>
       <c r="AN8">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AQ8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AR8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AS8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AT8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9">
-        <v>7999</v>
+        <v>6999</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <v>2464</v>
+      </c>
+      <c r="S9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA9" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="AB9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD9" t="s">
         <v>75</v>
       </c>
-      <c r="K9">
-        <v>2453</v>
-      </c>
-      <c r="S9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="AE9" t="s">
         <v>77</v>
       </c>
-      <c r="AB9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE9" t="s">
+      <c r="AH9" t="s">
         <v>81</v>
       </c>
-      <c r="AH9" t="s">
-        <v>86</v>
-      </c>
       <c r="AI9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AJ9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL9">
+        <v>140</v>
+      </c>
+      <c r="AM9">
+        <v>75</v>
+      </c>
+      <c r="AN9">
+        <v>140</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR9" t="s">
         <v>88</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AS9" t="s">
         <v>89</v>
       </c>
-      <c r="AL9">
-        <v>120</v>
-      </c>
-      <c r="AM9">
-        <v>76</v>
-      </c>
-      <c r="AN9">
-        <v>160</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>94</v>
-      </c>
       <c r="AT9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10">
         <v>6999</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10">
+        <v>2476</v>
+      </c>
+      <c r="S10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB10" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="AC10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD10" t="s">
         <v>75</v>
       </c>
-      <c r="K10">
-        <v>2464</v>
-      </c>
-      <c r="S10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC10" t="s">
+      <c r="AE10" t="s">
         <v>79</v>
       </c>
-      <c r="AD10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE10" t="s">
+      <c r="AH10" t="s">
         <v>81</v>
       </c>
-      <c r="AH10" t="s">
-        <v>86</v>
-      </c>
       <c r="AI10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AJ10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL10">
+        <v>120</v>
+      </c>
+      <c r="AM10">
+        <v>74</v>
+      </c>
+      <c r="AN10">
+        <v>150</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR10" t="s">
         <v>88</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AS10" t="s">
         <v>89</v>
       </c>
-      <c r="AL10">
-        <v>140</v>
-      </c>
-      <c r="AM10">
-        <v>75</v>
-      </c>
-      <c r="AN10">
-        <v>140</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>94</v>
-      </c>
       <c r="AT10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46">
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11">
-        <v>5999</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11">
-        <v>2458</v>
-      </c>
-      <c r="S11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE11" t="s">
         <v>84</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL11">
-        <v>80</v>
-      </c>
-      <c r="AM11">
-        <v>75</v>
-      </c>
-      <c r="AN11">
-        <v>120</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6061AB-DE46-437A-B198-B1CA53F63E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840976E2-207F-48A0-A901-31A15A21CD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="87">
   <si>
     <t>Address</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t xml:space="preserve">Стол угловой с тумбой </t>
-  </si>
-  <si>
-    <t>Стол угловой офисный</t>
   </si>
   <si>
     <t xml:space="preserve">Стол угловой </t>
@@ -235,36 +232,6 @@
                  </t>
   </si>
   <si>
-    <t>Стол угловой офисный
-Артикул 2427
-Угловой офисный стол от немецкого производителя мебели Bene, идеально сочетающий стиль, качество и функциональность.
-Мебель от Bene отличается высоким стандартом качества и современным европейским дизайном, что делает этот стол не только практичным решением, но и стильным элементом вашего офиса.
-Особенности:
-- Надежный металлический каркас: обеспечивает прочность, долговечность и современный внешний вид.
-- Эргономичный дизайн: угловая конструкция позволяет эффективно использовать пространство и создает комфортную рабочую зону.
-- Организация рабочего пространства: встроенное отверстие для проводов помогает поддерживать порядок и упрощает подключение техники.
-- Тумба в комплекте: удлиняет рабочую поверхность, предоставляя дополнительное место для документов и оргтехники.
-- Функциональность тумбы: оснащена замком для безопасности и органайзером для удобного хранения канцелярии.
-Размеры ДхШхВ: 160х114х74
-Цвет: серый
-Цена: 17 999 руб
-Количество: уточняйте
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Стол угловой 
 Артикул 2437-38
 Столы на металлической основе.  
@@ -420,9 +387,6 @@
     <t>https://disk.yandex.ru/i/uNmkA_2U25i67A | https://disk.yandex.ru/i/31YuLrCE8pppHg | https://disk.yandex.ru/i/KQxB5mVI_naDZA | https://disk.yandex.ru/i/hRgdRBJkBKIa_w | https://disk.yandex.ru/i/yTtUBWkxgn54lQ | https://disk.yandex.ru/i/wA6Nl5g3X11J6g | https://disk.yandex.ru/i/FnibuaFp5km8pg | https://disk.yandex.ru/i/ga69Ri5rvY37Zg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/vCCF-iXpA_8frg | https://disk.yandex.ru/i/tdC-4PET_LDFiA | https://disk.yandex.ru/i/vDUMuytr1KRuhQ | https://disk.yandex.ru/i/93U19GjQ3Ka2Cg | https://disk.yandex.ru/i/QSIcbKee_WhELg | https://disk.yandex.ru/i/69abF5DeXfd8yw | https://disk.yandex.ru/i/XRqHYAUr0waX5g | https://disk.yandex.ru/i/8cxeRkqutS17yA | https://disk.yandex.ru/i/KDMqdHQDOjjM4Q | https://disk.yandex.ru/i/3HAOaXzInw-Bew</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/NJe1_YMfgKwHoA | https://disk.yandex.ru/i/Iy8JvU6sTl_SMw | https://disk.yandex.ru/i/gxpX14yOnIGAxA | https://disk.yandex.ru/i/JJLOVgEvDwNj6g | https://disk.yandex.ru/i/8GitQq06jWlzeg | https://disk.yandex.ru/i/q_s3i9BJia7ZFA | https://disk.yandex.ru/i/9Itg3S6qBVXG6A</t>
   </si>
   <si>
@@ -438,6 +402,9 @@
     <t>https://disk.yandex.ru/i/XNGdSTjpgRWV1A | https://disk.yandex.ru/i/y5EspJZZinX3Iw | https://disk.yandex.ru/i/tb7i2lJdxt2qqw | https://disk.yandex.ru/i/N2lqSxMJDsJjPg | https://disk.yandex.ru/i/JtDeAuXlXg0D5Q | https://disk.yandex.ru/i/bkBu9tDDR310pA | https://disk.yandex.ru/i/iTid5nfqdBZLxw | https://disk.yandex.ru/i/PlPEwxAm0choMg</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/cs5pm-uw3xLpRQ | https://disk.yandex.ru/i/rn2_z9g3_ae81w | https://disk.yandex.ru/i/SaprY7-Arx2BqQ | https://disk.yandex.ru/i/ljFvTOQYcVyNIg | https://disk.yandex.ru/i/dDpbYxTpQbtScw | https://disk.yandex.ru/i/4zs48pb-5-cfMg | https://disk.yandex.ru/i/T6aQaR1mq9Osog | https://disk.yandex.ru/i/nBvXKe3S4CsuPw | https://disk.yandex.ru/i/QHMY5Quvm1q5yA</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -462,9 +429,6 @@
     <t>Коричневый</t>
   </si>
   <si>
-    <t>Серый</t>
-  </si>
-  <si>
     <t>Жёлтый</t>
   </si>
   <si>
@@ -496,9 +460,6 @@
   </si>
   <si>
     <t>Кабинет</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/cs5pm-uw3xLpRQ | https://disk.yandex.ru/i/rn2_z9g3_ae81w | https://disk.yandex.ru/i/SaprY7-Arx2BqQ | https://disk.yandex.ru/i/ljFvTOQYcVyNIg | https://disk.yandex.ru/i/dDpbYxTpQbtScw | https://disk.yandex.ru/i/4zs48pb-5-cfMg | https://disk.yandex.ru/i/T6aQaR1mq9Osog | https://disk.yandex.ru/i/nBvXKe3S4CsuPw | https://disk.yandex.ru/i/QHMY5Quvm1q5yA</t>
   </si>
 </sst>
 </file>
@@ -913,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT10"/>
+  <dimension ref="A1:AT9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,49 +1027,49 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>4999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K2">
         <v>2370</v>
       </c>
       <c r="S2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>72</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>73</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>76</v>
-      </c>
       <c r="AH2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK2" t="s">
         <v>81</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>84</v>
       </c>
       <c r="AL2">
         <v>120</v>
@@ -1120,19 +1081,19 @@
         <v>140</v>
       </c>
       <c r="AP2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>88</v>
-      </c>
       <c r="AS2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AT2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
@@ -1140,52 +1101,52 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>15000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K3">
         <v>2891</v>
       </c>
       <c r="S3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>73</v>
       </c>
-      <c r="AC3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>75</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>77</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>80</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AK3" t="s">
         <v>81</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>84</v>
       </c>
       <c r="AL3">
         <v>90</v>
@@ -1197,19 +1158,19 @@
         <v>140</v>
       </c>
       <c r="AP3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR3" t="s">
         <v>85</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AS3" t="s">
         <v>86</v>
       </c>
-      <c r="AR3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>89</v>
-      </c>
       <c r="AT3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
@@ -1217,73 +1178,73 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4">
-        <v>17999</v>
+        <v>7000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4">
+        <v>2437</v>
+      </c>
+      <c r="S4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" t="s">
         <v>70</v>
       </c>
-      <c r="K4">
-        <v>2427</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="AB4" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>72</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>73</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>74</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AH4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL4">
+        <v>90</v>
+      </c>
+      <c r="AM4">
         <v>75</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL4">
-        <v>114</v>
-      </c>
-      <c r="AM4">
-        <v>74</v>
       </c>
       <c r="AN4">
         <v>160</v>
       </c>
       <c r="AP4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR4" t="s">
         <v>85</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>88</v>
-      </c>
       <c r="AS4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AT4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
@@ -1291,221 +1252,221 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5">
+        <v>2440</v>
+      </c>
+      <c r="S5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" t="s">
         <v>70</v>
       </c>
-      <c r="K5">
-        <v>2437</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="AB5" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>72</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>73</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>74</v>
       </c>
-      <c r="AD5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>76</v>
-      </c>
       <c r="AH5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK5" t="s">
         <v>81</v>
       </c>
-      <c r="AI5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>84</v>
-      </c>
       <c r="AL5">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AM5">
         <v>75</v>
       </c>
       <c r="AN5">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AP5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR5" t="s">
         <v>85</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>88</v>
-      </c>
       <c r="AS5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AT5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6">
+        <v>2452</v>
+      </c>
+      <c r="S6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA6" t="s">
         <v>70</v>
       </c>
-      <c r="K6">
-        <v>2440</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="AB6" t="s">
         <v>71</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>72</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>73</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>74</v>
       </c>
-      <c r="AD6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL6">
+        <v>160</v>
+      </c>
+      <c r="AM6">
         <v>76</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL6">
-        <v>79</v>
-      </c>
-      <c r="AM6">
-        <v>75</v>
       </c>
       <c r="AN6">
         <v>140</v>
       </c>
       <c r="AP6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR6" t="s">
         <v>85</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>88</v>
-      </c>
       <c r="AS6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AT6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7">
         <v>7999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7">
+        <v>2453</v>
+      </c>
+      <c r="S7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA7" t="s">
         <v>70</v>
       </c>
-      <c r="K7">
-        <v>2452</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="AB7" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>72</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>73</v>
       </c>
-      <c r="AC7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>75</v>
       </c>
-      <c r="AE7" t="s">
-        <v>76</v>
-      </c>
       <c r="AH7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK7" t="s">
         <v>81</v>
       </c>
-      <c r="AI7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>84</v>
-      </c>
       <c r="AL7">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AM7">
         <v>76</v>
       </c>
       <c r="AN7">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR7" t="s">
         <v>85</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>88</v>
-      </c>
       <c r="AS7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AT7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
@@ -1513,221 +1474,147 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8">
-        <v>7999</v>
+        <v>6999</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8">
+        <v>2464</v>
+      </c>
+      <c r="S8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA8" t="s">
         <v>70</v>
       </c>
-      <c r="K8">
-        <v>2453</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="AB8" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>72</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>73</v>
       </c>
-      <c r="AC8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>75</v>
       </c>
-      <c r="AE8" t="s">
-        <v>77</v>
-      </c>
       <c r="AH8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK8" t="s">
         <v>81</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AL8">
+        <v>140</v>
+      </c>
+      <c r="AM8">
+        <v>75</v>
+      </c>
+      <c r="AN8">
+        <v>140</v>
+      </c>
+      <c r="AP8" t="s">
         <v>82</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL8">
-        <v>120</v>
-      </c>
-      <c r="AM8">
-        <v>76</v>
-      </c>
-      <c r="AN8">
-        <v>160</v>
-      </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR8" t="s">
         <v>85</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>88</v>
-      </c>
       <c r="AS8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AT8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9">
         <v>6999</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9">
+        <v>2476</v>
+      </c>
+      <c r="S9" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="AA9" t="s">
         <v>70</v>
       </c>
-      <c r="K9">
-        <v>2464</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="AB9" t="s">
         <v>71</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>72</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
         <v>73</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL9">
+        <v>120</v>
+      </c>
+      <c r="AM9">
         <v>74</v>
       </c>
-      <c r="AD9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AN9">
+        <v>150</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT9" t="s">
         <v>81</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL9">
-        <v>140</v>
-      </c>
-      <c r="AM9">
-        <v>75</v>
-      </c>
-      <c r="AN9">
-        <v>140</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10">
-        <v>6999</v>
-      </c>
-      <c r="G10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10">
-        <v>2476</v>
-      </c>
-      <c r="S10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL10">
-        <v>120</v>
-      </c>
-      <c r="AM10">
-        <v>74</v>
-      </c>
-      <c r="AN10">
-        <v>150</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1736,19 +1623,18 @@
     <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840976E2-207F-48A0-A901-31A15A21CD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -465,8 +459,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,26 +531,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -594,9 +580,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,27 +614,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,27 +648,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -873,16 +823,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="D2" t="s">
         <v>46</v>
       </c>
@@ -1096,7 +1044,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -1173,7 +1121,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="D4" t="s">
         <v>48</v>
       </c>
@@ -1247,7 +1195,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46">
       <c r="D5" t="s">
         <v>49</v>
       </c>
@@ -1321,7 +1269,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46">
       <c r="D6" t="s">
         <v>47</v>
       </c>
@@ -1395,7 +1343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46">
       <c r="D7" t="s">
         <v>50</v>
       </c>
@@ -1469,7 +1417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46">
       <c r="D8" t="s">
         <v>51</v>
       </c>
@@ -1543,7 +1491,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46">
       <c r="D9" t="s">
         <v>50</v>
       </c>
@@ -1619,22 +1567,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="91">
   <si>
     <t>Address</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Стол угловой с тумбой</t>
+  </si>
+  <si>
+    <t>Стол угловой офисный</t>
   </si>
   <si>
     <t xml:space="preserve">Компьютерный стол с тумбой
@@ -375,6 +378,31 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Стол угловой офисный
+Артикул 2508-9
+Офисный стол угловой выполненный в современном стиле. Этот угловой стол обладает высокой практичностью за счёт большой рабочей поверхности и отверстий для проводов, которые гармонично смотрятся в компьютерном столе. 
+К столу идёт тумба на колёсиках. 
+Столы бу имеют дефекты! 
+Размеры ДхШхВ: 150х120х76
+Цвет белый
+Цена 7 499
+Количество 18 (уточняйте)
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/Ara9b_4wd8sDtw | https://disk.yandex.ru/i/gqgZmxZYt1fsgQ | https://disk.yandex.ru/i/0Dl22w6bBYc8xA | https://disk.yandex.ru/i/HRnd-b3cWTnOkw | https://disk.yandex.ru/i/nUyViw3R7aY2ew | https://disk.yandex.ru/i/TXcKs1Dof2cP8A | https://disk.yandex.ru/i/dInfX-hvLmREBQ</t>
   </si>
   <si>
@@ -399,6 +427,9 @@
     <t>https://disk.yandex.ru/i/cs5pm-uw3xLpRQ | https://disk.yandex.ru/i/rn2_z9g3_ae81w | https://disk.yandex.ru/i/SaprY7-Arx2BqQ | https://disk.yandex.ru/i/ljFvTOQYcVyNIg | https://disk.yandex.ru/i/dDpbYxTpQbtScw | https://disk.yandex.ru/i/4zs48pb-5-cfMg | https://disk.yandex.ru/i/T6aQaR1mq9Osog | https://disk.yandex.ru/i/nBvXKe3S4CsuPw | https://disk.yandex.ru/i/QHMY5Quvm1q5yA</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/nxyWus9chpkgBg | https://disk.yandex.ru/i/X59WgVMYs6MrAQ | https://disk.yandex.ru/i/YPCbXR8nCv7DQw | https://disk.yandex.ru/i/7of7goTzi4wWhA | https://disk.yandex.ru/i/eAJiX8UOCNdG8w | https://disk.yandex.ru/i/bk_9qWX4N3MYNg | https://disk.yandex.ru/i/wxDZk0KYRlwcYw | https://disk.yandex.ru/i/ckYrdPl4rHiwTA | https://disk.yandex.ru/i/exC6_RdEVDK45w | https://disk.yandex.ru/i/95hBOeK13SvIfw</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -424,6 +455,9 @@
   </si>
   <si>
     <t>Жёлтый</t>
+  </si>
+  <si>
+    <t>Белый</t>
   </si>
   <si>
     <t xml:space="preserve">Венге </t>
@@ -824,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT9"/>
+  <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -975,49 +1009,49 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>4999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K2">
         <v>2370</v>
       </c>
       <c r="S2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AL2">
         <v>120</v>
@@ -1029,19 +1063,19 @@
         <v>140</v>
       </c>
       <c r="AP2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AQ2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AR2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AS2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AT2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1049,52 +1083,52 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>15000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K3">
         <v>2891</v>
       </c>
       <c r="S3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AJ3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AK3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AL3">
         <v>90</v>
@@ -1106,19 +1140,19 @@
         <v>140</v>
       </c>
       <c r="AP3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AQ3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AR3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AS3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AT3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1126,49 +1160,49 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>7000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4">
         <v>2437</v>
       </c>
       <c r="S4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AJ4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AK4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AL4">
         <v>90</v>
@@ -1180,19 +1214,19 @@
         <v>160</v>
       </c>
       <c r="AP4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AQ4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AR4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AS4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AT4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1200,49 +1234,49 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>10000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K5">
         <v>2440</v>
       </c>
       <c r="S5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AJ5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AK5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AL5">
         <v>79</v>
@@ -1254,19 +1288,19 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AQ5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AR5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AS5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AT5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1274,49 +1308,49 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6">
         <v>7999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K6">
         <v>2452</v>
       </c>
       <c r="S6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AJ6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AK6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AL6">
         <v>160</v>
@@ -1328,19 +1362,19 @@
         <v>140</v>
       </c>
       <c r="AP6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AQ6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AR6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AS6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AT6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1348,49 +1382,49 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>7999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K7">
         <v>2453</v>
       </c>
       <c r="S7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AJ7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AK7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AL7">
         <v>120</v>
@@ -1402,19 +1436,19 @@
         <v>160</v>
       </c>
       <c r="AP7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AQ7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AR7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AS7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AT7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1422,49 +1456,49 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8">
         <v>6999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K8">
         <v>2464</v>
       </c>
       <c r="S8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AA8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AJ8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AK8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AL8">
         <v>140</v>
@@ -1476,19 +1510,19 @@
         <v>140</v>
       </c>
       <c r="AP8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AQ8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AR8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AS8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AT8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1496,49 +1530,49 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9">
         <v>6999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K9">
         <v>2476</v>
       </c>
       <c r="S9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AA9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AJ9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AK9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AL9">
         <v>120</v>
@@ -1550,19 +1584,93 @@
         <v>150</v>
       </c>
       <c r="AP9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10">
+        <v>7499</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10">
+        <v>2508</v>
+      </c>
+      <c r="S10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH10" t="s">
         <v>82</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS9" t="s">
+      <c r="AI10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL10">
+        <v>120</v>
+      </c>
+      <c r="AM10">
+        <v>76</v>
+      </c>
+      <c r="AN10">
+        <v>150</v>
+      </c>
+      <c r="AP10" t="s">
         <v>86</v>
       </c>
-      <c r="AT9" t="s">
-        <v>81</v>
+      <c r="AQ10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1583,6 +1691,8 @@
     <hyperlink ref="I8" r:id="rId14"/>
     <hyperlink ref="G9" r:id="rId15"/>
     <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/corner tables.xlsx
+++ b/make_xl/data_xl/corner tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="89">
   <si>
     <t>Address</t>
   </si>
@@ -166,10 +166,10 @@
     <t>Стол эргономичный</t>
   </si>
   <si>
+    <t>Стол угловой с тумбой</t>
+  </si>
+  <si>
     <t>Стол офисный с тумбой</t>
-  </si>
-  <si>
-    <t>Стол угловой с тумбой</t>
   </si>
   <si>
     <t>Стол угловой офисный</t>
@@ -303,33 +303,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Стол офисный с тумбой
-Артикул 2453-54
-Описание
-Размеры ДхШхВ: 160х120х76
-Цвет орех
-Цена 7999
-Количество 6 (уточняйте)
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Стол угловой с тумбой
 Артикул 2464-65
 Офисные столы с тумбой отлично подойдут для работы, эргономичные и удобные. 
@@ -416,9 +389,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://disk.yandex.ru/i/ETPguRFN6vNGfg | https://disk.yandex.ru/i/bbRqOa_CxMo-BA | https://disk.yandex.ru/i/4-ZU3hUDQHHFMA | https://disk.yandex.ru/i/CLay-99S4Qh_1g | https://disk.yandex.ru/i/WoNsgSYYLdp-mg | </t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/s7arz1A2ObR66Q | https://disk.yandex.ru/i/MExBWK6rR5X1yw | https://disk.yandex.ru/i/Wa8alImh8yFvbg | https://disk.yandex.ru/i/wScVS10q-X04Bw | https://disk.yandex.ru/i/PuTseMeE7dj46g | https://disk.yandex.ru/i/n3c32eu93IO7vA | https://disk.yandex.ru/i/Guc_8yL5ZxEUJA | https://disk.yandex.ru/i/H8uXqWibc0nL0Q | https://disk.yandex.ru/i/Kzv_Rs4Dkg9aGw</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/XNGdSTjpgRWV1A | https://disk.yandex.ru/i/y5EspJZZinX3Iw | https://disk.yandex.ru/i/tb7i2lJdxt2qqw | https://disk.yandex.ru/i/N2lqSxMJDsJjPg | https://disk.yandex.ru/i/JtDeAuXlXg0D5Q | https://disk.yandex.ru/i/bkBu9tDDR310pA | https://disk.yandex.ru/i/iTid5nfqdBZLxw | https://disk.yandex.ru/i/PlPEwxAm0choMg</t>
@@ -858,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT10"/>
+  <dimension ref="A1:AT9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1015,43 +985,43 @@
         <v>4999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K2">
         <v>2370</v>
       </c>
       <c r="S2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>74</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>75</v>
       </c>
-      <c r="AD2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>77</v>
-      </c>
       <c r="AH2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>82</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>83</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>85</v>
       </c>
       <c r="AL2">
         <v>120</v>
@@ -1063,19 +1033,19 @@
         <v>140</v>
       </c>
       <c r="AP2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AQ2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AR2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AS2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AT2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1089,46 +1059,46 @@
         <v>15000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K3">
         <v>2891</v>
       </c>
       <c r="S3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3" t="s">
         <v>72</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>74</v>
       </c>
-      <c r="AC3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>76</v>
       </c>
-      <c r="AE3" t="s">
-        <v>78</v>
-      </c>
       <c r="AF3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI3" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" t="s">
         <v>82</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AK3" t="s">
         <v>83</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>85</v>
       </c>
       <c r="AL3">
         <v>90</v>
@@ -1140,19 +1110,19 @@
         <v>140</v>
       </c>
       <c r="AP3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AQ3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR3" t="s">
         <v>87</v>
       </c>
-      <c r="AR3" t="s">
-        <v>89</v>
-      </c>
       <c r="AS3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AT3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1166,43 +1136,43 @@
         <v>7000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4">
         <v>2437</v>
       </c>
       <c r="S4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s">
         <v>72</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>74</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>75</v>
       </c>
-      <c r="AD4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>77</v>
-      </c>
       <c r="AH4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>82</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AK4" t="s">
         <v>83</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>85</v>
       </c>
       <c r="AL4">
         <v>90</v>
@@ -1214,19 +1184,19 @@
         <v>160</v>
       </c>
       <c r="AP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>86</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS4" t="s">
         <v>88</v>
       </c>
-      <c r="AR4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>90</v>
-      </c>
       <c r="AT4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1240,43 +1210,43 @@
         <v>10000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K5">
         <v>2440</v>
       </c>
       <c r="S5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB5" t="s">
         <v>72</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>73</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>74</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>75</v>
       </c>
-      <c r="AD5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>77</v>
-      </c>
       <c r="AH5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>82</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AK5" t="s">
         <v>83</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>85</v>
       </c>
       <c r="AL5">
         <v>79</v>
@@ -1288,19 +1258,19 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>86</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS5" t="s">
         <v>88</v>
       </c>
-      <c r="AR5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>90</v>
-      </c>
       <c r="AT5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1314,43 +1284,43 @@
         <v>7999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K6">
         <v>2452</v>
       </c>
       <c r="S6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s">
         <v>72</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>73</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>74</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>75</v>
       </c>
-      <c r="AD6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>77</v>
-      </c>
       <c r="AH6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>82</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AK6" t="s">
         <v>83</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>85</v>
       </c>
       <c r="AL6">
         <v>160</v>
@@ -1362,19 +1332,19 @@
         <v>140</v>
       </c>
       <c r="AP6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AQ6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AR6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AS6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AT6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1385,70 +1355,70 @@
         <v>58</v>
       </c>
       <c r="F7">
-        <v>7999</v>
+        <v>6999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7">
+        <v>2464</v>
+      </c>
+      <c r="S7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" t="s">
         <v>71</v>
       </c>
-      <c r="K7">
-        <v>2453</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="AB7" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>73</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>74</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL7">
+        <v>140</v>
+      </c>
+      <c r="AM7">
         <v>75</v>
       </c>
-      <c r="AD7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AN7">
+        <v>140</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT7" t="s">
         <v>83</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL7">
-        <v>120</v>
-      </c>
-      <c r="AM7">
-        <v>76</v>
-      </c>
-      <c r="AN7">
-        <v>160</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1462,215 +1432,141 @@
         <v>6999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8">
+        <v>2476</v>
+      </c>
+      <c r="S8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA8" t="s">
         <v>71</v>
       </c>
-      <c r="K8">
-        <v>2464</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="AB8" t="s">
         <v>72</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>73</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>74</v>
       </c>
-      <c r="AC8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>76</v>
-      </c>
       <c r="AE8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>82</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AK8" t="s">
         <v>83</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AL8">
+        <v>120</v>
+      </c>
+      <c r="AM8">
+        <v>74</v>
+      </c>
+      <c r="AN8">
+        <v>150</v>
+      </c>
+      <c r="AP8" t="s">
         <v>84</v>
       </c>
-      <c r="AK8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL8">
-        <v>140</v>
-      </c>
-      <c r="AM8">
-        <v>75</v>
-      </c>
-      <c r="AN8">
-        <v>140</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>86</v>
-      </c>
       <c r="AQ8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AR8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AS8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AT8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:46">
       <c r="D9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
       </c>
       <c r="F9">
-        <v>6999</v>
+        <v>7499</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9">
+        <v>2508</v>
+      </c>
+      <c r="S9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA9" t="s">
         <v>71</v>
       </c>
-      <c r="K9">
-        <v>2476</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="AB9" t="s">
         <v>72</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>73</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
         <v>74</v>
       </c>
-      <c r="AC9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>76</v>
-      </c>
       <c r="AE9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>82</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AK9" t="s">
         <v>83</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>85</v>
       </c>
       <c r="AL9">
         <v>120</v>
       </c>
       <c r="AM9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN9">
         <v>150</v>
       </c>
       <c r="AP9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AQ9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AR9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AS9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AT9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46">
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10">
-        <v>7499</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10">
-        <v>2508</v>
-      </c>
-      <c r="S10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI10" t="s">
         <v>83</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL10">
-        <v>120</v>
-      </c>
-      <c r="AM10">
-        <v>76</v>
-      </c>
-      <c r="AN10">
-        <v>150</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1691,8 +1587,6 @@
     <hyperlink ref="I8" r:id="rId14"/>
     <hyperlink ref="G9" r:id="rId15"/>
     <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
